--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B63CA2-7922-492E-9F63-B8963BD206FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -224,19 +230,61 @@
   </si>
   <si>
     <t>yijinjing</t>
+  </si>
+  <si>
+    <r>
+      <t>0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;0.5;0.5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.5;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.25;0.25;0.25;0.25</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,70 +300,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -324,79 +309,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,204 +323,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -625,253 +357,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,62 +378,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1228,30 +677,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1317,11 +765,11 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1331,11 +779,11 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1349,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1363,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1377,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1391,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1405,7 +853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1419,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1433,7 +881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1447,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1461,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1471,11 +919,11 @@
       <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1489,7 +937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1503,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1517,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1531,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1545,7 +993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1559,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1573,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1587,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1601,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1615,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1629,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1643,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1657,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1671,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1685,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1700,11 +1148,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B63CA2-7922-492E-9F63-B8963BD206FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC5636-7B1D-4F17-A3DC-D4F5F6EE03E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="672" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -233,7 +233,17 @@
   </si>
   <si>
     <r>
-      <t>0;</t>
+      <t>0.5;0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;0.</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +254,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>9</t>
     </r>
     <r>
       <rPr>
@@ -254,17 +264,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;0.5;0.5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5;0.5;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>;</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +275,138 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.25;0.25;0.25;0.25</t>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.4;0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.4;0.5;0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.5;0.5;1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.4;0.75;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.7;1.5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;0.6;0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6;1;0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -687,7 +818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -780,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,8 +924,8 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,8 +952,8 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,8 +994,8 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
+      <c r="D12" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,8 +1008,8 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
+      <c r="D13" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,8 +1036,8 @@
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
+      <c r="D15" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,8 +1078,8 @@
       <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,8 +1134,8 @@
       <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
+      <c r="D22" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,8 +1148,8 @@
       <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC5636-7B1D-4F17-A3DC-D4F5F6EE03E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499C2AF-700B-49EA-947A-6CEDFDADD456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="672" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="624" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -408,6 +408,383 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒法</t>
+  </si>
+  <si>
+    <t>钓鱼棍法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅杖功</t>
+  </si>
+  <si>
+    <t>擒龙功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉伏魔拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手如来掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青莲女神剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蟒鞭</t>
+  </si>
+  <si>
+    <t>华山剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒神鞭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千蛛万毒手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔刀一闪</t>
+  </si>
+  <si>
+    <t>波动拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜落星河剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agoubangfa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaoyugunfa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hanzhanggong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inlonggong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uohanfumoquan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianshourulaizhang</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aijijianfa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aijiquan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingliannvshenjian</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aimangbian</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uashanjianfa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>udushenbian</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianzhuwandushou</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odao</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odaoyishan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odongquan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eluoxinghejian</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方/敌方</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +820,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -492,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +896,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -830,7 +1218,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +1231,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +1248,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,8 +1265,11 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,8 +1282,11 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -899,8 +1299,11 @@
       <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -913,8 +1316,11 @@
       <c r="D6" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -927,8 +1333,11 @@
       <c r="D7" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -941,8 +1350,11 @@
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -955,8 +1367,11 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -969,8 +1384,11 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -983,8 +1401,11 @@
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -997,8 +1418,11 @@
       <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1011,8 +1435,11 @@
       <c r="D13" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1025,8 +1452,11 @@
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1039,8 +1469,11 @@
       <c r="D15" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1053,8 +1486,11 @@
       <c r="D16" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1067,8 +1503,11 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1081,8 +1520,11 @@
       <c r="D18" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1095,8 +1537,11 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1109,8 +1554,11 @@
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1123,8 +1571,11 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1137,8 +1588,11 @@
       <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1151,8 +1605,11 @@
       <c r="D23" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1165,8 +1622,11 @@
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1179,8 +1639,11 @@
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1193,8 +1656,11 @@
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1207,8 +1673,11 @@
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1221,8 +1690,11 @@
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1235,8 +1707,11 @@
       <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1249,8 +1724,11 @@
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1263,8 +1741,11 @@
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1277,6 +1758,301 @@
       <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC65413-C3FC-4739-947A-FFDB9F0DD51B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29370" windowHeight="11390"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -603,28 +609,6 @@
     <t>太极拳</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aijiquan</t>
-    </r>
-  </si>
-  <si>
     <t>青莲女神剑</t>
   </si>
   <si>
@@ -848,19 +832,198 @@
       </rPr>
       <t>eluoxinghejian</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5;1.1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1;1;1;1;1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taiji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhang</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8;0.6;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,151 +1053,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,204 +1076,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1263,253 +1110,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,62 +1137,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1872,30 +1436,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24:D49"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10909090909091" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1929,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1946,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1963,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1980,7 +1543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1997,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2014,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2031,7 +1594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2048,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2065,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2082,7 +1645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2099,7 +1662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2116,7 +1679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2133,7 +1696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2150,7 +1713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2167,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2184,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2201,7 +1764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2218,7 +1781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2235,7 +1798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2252,7 +1815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2269,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2286,7 +1849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2303,7 +1866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2320,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2337,7 +1900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2354,7 +1917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2371,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2388,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2405,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2422,7 +1985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2439,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2449,14 +2012,14 @@
       <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
+      <c r="D33" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2466,14 +2029,14 @@
       <c r="C34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>26</v>
+      <c r="D34" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2490,7 +2053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2507,7 +2070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2517,14 +2080,14 @@
       <c r="C37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>26</v>
+      <c r="D37" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2534,14 +2097,14 @@
       <c r="C38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>26</v>
+      <c r="D38" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2551,39 +2114,39 @@
       <c r="C39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>26</v>
+      <c r="D39" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>26</v>
+      <c r="C40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -2592,15 +2155,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -2609,15 +2172,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -2626,15 +2189,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
@@ -2643,15 +2206,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
@@ -2660,15 +2223,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -2677,15 +2240,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
@@ -2694,15 +2257,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
@@ -2711,15 +2274,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
@@ -2728,15 +2291,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC65413-C3FC-4739-947A-FFDB9F0DD51B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E02D7-C923-45B1-B89F-C3E1E1429E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -1016,6 +1016,38 @@
       </rPr>
       <t>.1</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼攻击1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzei_attack_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼攻击2</t>
+  </si>
+  <si>
+    <t>shanzei_attack_2</t>
+  </si>
+  <si>
+    <t>山大王攻击1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzeiBoss_attack_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzeiBoss_attack_2</t>
+  </si>
+  <si>
+    <t>山大王攻击2</t>
+  </si>
+  <si>
+    <t>1.6;2.5;2.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1442,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2324,72 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="5"/>
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E02D7-C923-45B1-B89F-C3E1E1429E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780C4CD-570D-4147-9C5B-8D22611A900D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -1048,6 +1048,61 @@
   </si>
   <si>
     <t>1.6;2.5;2.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1;0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.5;1.5;1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1477,8 +1532,8 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1806,8 +1861,8 @@
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
+      <c r="D19" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -1908,8 +1963,8 @@
       <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>26</v>
+      <c r="D25" s="2">
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>58</v>
@@ -1942,8 +1997,8 @@
       <c r="C27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>26</v>
+      <c r="D27" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>17</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780C4CD-570D-4147-9C5B-8D22611A900D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE1CF95-0C2F-4865-A700-97CB36AE8CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -1103,6 +1103,26 @@
       </rPr>
       <t>.5</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅杖功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanzhanggong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1;1.1;1.1;1.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6;2;2.2;2.2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1529,11 +1549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -2444,6 +2464,23 @@
       </c>
       <c r="E53" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE1CF95-0C2F-4865-A700-97CB36AE8CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635A357-4F3C-4029-96AC-6145D2092104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -1106,19 +1106,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>禅杖功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>chanzhanggong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1;1.1;1.1;1.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1549,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -2154,7 +2142,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>84</v>
@@ -2464,23 +2452,6 @@
       </c>
       <c r="E53" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635A357-4F3C-4029-96AC-6145D2092104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC1069A-CB6F-4C13-9456-B53A6D8B15F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9888" yWindow="216" windowWidth="13116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,6 +89,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,6 +100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,6 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,6 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,6 +213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,6 +269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,6 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +291,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,6 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,6 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,6 +324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,6 +335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,6 +346,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,6 +452,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -446,6 +463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -464,6 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -474,6 +493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -489,6 +509,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -499,6 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -514,6 +536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -524,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,6 +601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,6 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -617,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -627,6 +658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,6 +674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,6 +685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,6 +701,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +712,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -692,6 +728,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -702,6 +739,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,6 +755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -727,6 +766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,6 +782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,6 +793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,6 +809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -777,6 +820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,6 +836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,6 +847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -817,6 +863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -827,6 +874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -850,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -885,6 +934,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,6 +1016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1000,6 +1052,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1087,6 +1140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1111,6 +1165,30 @@
   </si>
   <si>
     <t>2.6;2;2.2;2.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼攻击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1131,6 +1209,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1138,18 +1217,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1537,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2472,7 @@
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2451,6 +2533,91 @@
         <v>131</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>52</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC1069A-CB6F-4C13-9456-B53A6D8B15F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9888" yWindow="216" windowWidth="13116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -78,7 +72,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +82,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,7 +92,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,6 +167,9 @@
     <t>wulangbaguagun</t>
   </si>
   <si>
+    <t>2.6;2;2.2;2.2</t>
+  </si>
+  <si>
     <t>莲花掌</t>
   </si>
   <si>
@@ -213,7 +205,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,7 +215,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,7 +225,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +258,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +268,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,7 +278,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,7 +288,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,7 +298,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +308,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,7 +328,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,6 +341,48 @@
     <t>luanpifengjianfa</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.5;1.5;1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+  </si>
+  <si>
     <t>烈焰刀法</t>
   </si>
   <si>
@@ -414,6 +437,28 @@
     <t>dugujiujian</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1;0</t>
+    </r>
+  </si>
+  <si>
     <t>凌波微步</t>
   </si>
   <si>
@@ -452,7 +497,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,7 +507,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,6 +514,38 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5;1.1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4</t>
+    </r>
+  </si>
+  <si>
     <t>敌方</t>
   </si>
   <si>
@@ -482,7 +557,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -493,7 +567,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,6 +574,38 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
     <t>禅杖功</t>
   </si>
   <si>
@@ -509,7 +614,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,7 +624,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,6 +631,9 @@
     </r>
   </si>
   <si>
+    <t>1.1;1.1;1.1;1.1</t>
+  </si>
+  <si>
     <t>擒龙功</t>
   </si>
   <si>
@@ -536,7 +642,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +652,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -563,7 +667,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,7 +677,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,6 +684,9 @@
     </r>
   </si>
   <si>
+    <t>1;1</t>
+  </si>
+  <si>
     <t>千手如来掌</t>
   </si>
   <si>
@@ -590,7 +695,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -601,7 +705,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,6 +712,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1;1;1;1;1</t>
+    </r>
+  </si>
+  <si>
     <t>太极剑法</t>
   </si>
   <si>
@@ -617,7 +742,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -628,7 +752,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -636,9 +759,95 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>太极拳</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taiji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8;0.6;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
     <t>青莲女神剑</t>
   </si>
   <si>
@@ -647,7 +856,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -658,7 +866,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -674,7 +881,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -685,7 +891,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,7 +906,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -712,7 +916,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,7 +931,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -739,7 +941,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +956,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -766,7 +966,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -782,7 +981,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,7 +991,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,7 +1006,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -820,7 +1016,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -836,7 +1031,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -847,7 +1041,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +1056,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,7 +1066,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -882,202 +1073,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.5;1.1;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.1;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1;1;1;1;1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>taiji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhang</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.8;0.6;0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>山贼攻击1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shanzei_attack_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>山贼攻击2</t>
@@ -1087,116 +1086,61 @@
   </si>
   <si>
     <t>山大王攻击1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shanzeiBoss_attack_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山大王攻击2</t>
   </si>
   <si>
     <t>shanzeiBoss_attack_2</t>
   </si>
   <si>
-    <t>山大王攻击2</t>
-  </si>
-  <si>
     <t>1.6;2.5;2.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1;0</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1.5;1.5;1.5;1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1;1.1;1.1;1.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.6;2;2.2;2.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>熊攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear_attack</t>
   </si>
   <si>
     <t>野猪攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boar_attack</t>
   </si>
   <si>
     <t>鹿攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deer_attack</t>
   </si>
   <si>
     <t>蛇攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snake_attack</t>
   </si>
   <si>
     <t>狼攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_attack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,42 +1153,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,18 +1316,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1287,11 +1536,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,13 +1790,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1314,21 +1802,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1613,29 +2142,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:C60"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.10909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.2181818181818" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.8909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6636363636364" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,11 +2178,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1665,11 +2195,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1703,930 +2233,930 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
+      <c r="B21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>99</v>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>103</v>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>105</v>
+      <c r="B44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>107</v>
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>109</v>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>113</v>
+      <c r="B48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>115</v>
+      <c r="B49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>123</v>
+      <c r="B50" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D51" s="2">
         <v>0.7</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2">
         <v>0.9</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>139</v>
+      <c r="C54" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>139</v>
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>139</v>
+      <c r="B57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>139</v>
+      <c r="B58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>84</v>
+      <c r="E58" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+  <sortState ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A144F-9939-47B5-8E38-13B6AD6E134E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView xWindow="-2160" yWindow="2148" windowWidth="16680" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,6 +89,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,6 +100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -205,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -215,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -258,6 +272,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,6 +283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,6 +305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,6 +327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -328,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,6 +368,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,6 +379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,6 +390,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,6 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,6 +468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,6 +479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,6 +525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,6 +536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,6 +549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -567,6 +601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -579,6 +614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,6 +636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -614,6 +652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -624,6 +663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,6 +682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,6 +693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,6 +709,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +720,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -695,6 +739,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -705,6 +750,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,6 +763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -727,6 +774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,6 +790,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,6 +801,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -774,6 +825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -784,6 +836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,6 +852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,6 +863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,6 +876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -831,6 +887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -841,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -856,6 +914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -866,6 +925,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -881,6 +941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -891,6 +952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -906,6 +968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -916,6 +979,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -931,6 +995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +1006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,6 +1022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,6 +1033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -981,6 +1049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,6 +1060,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,6 +1076,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,6 +1087,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1031,6 +1103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1041,6 +1114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1056,6 +1130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,6 +1141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,33 +1204,85 @@
   </si>
   <si>
     <t>wolf_attack</t>
+  </si>
+  <si>
+    <r>
+      <t>1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8;0.6;1.1;1.4</t>
+  </si>
+  <si>
+    <t>刺客攻击1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;1.1;1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客攻击2</t>
+  </si>
+  <si>
+    <t>cike_attack_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cike_attack_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,150 +1292,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,204 +1330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1536,255 +1364,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1793,7 +1379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1803,61 +1389,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2142,30 +1684,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10909090909091" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2199,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2250,7 +1791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2267,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2284,7 +1825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2301,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2318,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2335,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2352,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2369,7 +1910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2386,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2403,7 +1944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2420,7 +1961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2437,7 +1978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2454,7 +1995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2471,7 +2012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2488,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2505,7 +2046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2522,7 +2063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2539,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2556,7 +2097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2573,7 +2114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2590,7 +2131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2607,7 +2148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2624,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2641,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2658,7 +2199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2675,7 +2216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2692,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2709,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2726,7 +2267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2743,7 +2284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2760,7 +2301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2770,14 +2311,14 @@
       <c r="C36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>26</v>
+      <c r="D36" s="2">
+        <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2794,7 +2335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2811,7 +2352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2828,7 +2369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2845,7 +2386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2855,14 +2396,14 @@
       <c r="C41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>26</v>
+      <c r="D41" s="2">
+        <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2872,14 +2413,14 @@
       <c r="C42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>26</v>
+      <c r="D42" s="2">
+        <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2896,7 +2437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2906,14 +2447,14 @@
       <c r="C44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>26</v>
+      <c r="D44" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2923,14 +2464,14 @@
       <c r="C45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>26</v>
+      <c r="D45" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2947,7 +2488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2964,7 +2505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2981,7 +2522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2998,7 +2539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -3015,7 +2556,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -3032,7 +2573,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -3049,7 +2590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -3066,7 +2607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -3076,14 +2617,14 @@
       <c r="C54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>26</v>
+      <c r="D54" s="2">
+        <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -3100,7 +2641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -3110,14 +2651,14 @@
       <c r="C56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>26</v>
+      <c r="D56" s="2">
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -3127,14 +2668,14 @@
       <c r="C57" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>26</v>
+      <c r="D57" s="2">
+        <v>0.5</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -3144,19 +2685,53 @@
       <c r="C58" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>26</v>
+      <c r="D58" s="2">
+        <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A144F-9939-47B5-8E38-13B6AD6E134E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF29A907-B2FD-47B7-BB2A-B2859E1BFF59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2160" yWindow="2148" windowWidth="16680" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -1693,8 +1693,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2634,8 +2634,8 @@
       <c r="C55" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>26</v>
+      <c r="D55" s="2">
+        <v>0.8</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>88</v>
@@ -2732,6 +2732,6 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF29A907-B2FD-47B7-BB2A-B2859E1BFF59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C1391B-0E7A-4A81-ADAE-CC354B6670EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -1274,6 +1274,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>;1.5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastSE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it_Light</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1690,11 +1723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56:M56"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1703,10 +1736,12 @@
     <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1757,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +1780,14 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1756,8 +1803,14 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1773,8 +1826,14 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1790,8 +1849,11 @@
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1807,8 +1869,11 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1824,8 +1889,11 @@
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1841,8 +1909,11 @@
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1858,8 +1929,11 @@
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1875,8 +1949,11 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1892,8 +1969,11 @@
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1909,8 +1989,11 @@
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1926,8 +2009,11 @@
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1943,8 +2029,11 @@
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1960,8 +2049,11 @@
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1977,8 +2069,11 @@
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1994,8 +2089,11 @@
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2011,8 +2109,11 @@
       <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2028,8 +2129,11 @@
       <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2045,8 +2149,11 @@
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2062,8 +2169,11 @@
       <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2079,8 +2189,11 @@
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2096,8 +2209,11 @@
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2113,8 +2229,11 @@
       <c r="E24" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2130,8 +2249,11 @@
       <c r="E25" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2147,8 +2269,11 @@
       <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2164,8 +2289,11 @@
       <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2181,8 +2309,11 @@
       <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2198,8 +2329,11 @@
       <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2215,8 +2349,11 @@
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2232,8 +2369,11 @@
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2249,8 +2389,11 @@
       <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2266,8 +2409,11 @@
       <c r="E33" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2283,8 +2429,11 @@
       <c r="E34" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2300,8 +2449,11 @@
       <c r="E35" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2317,8 +2469,11 @@
       <c r="E36" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2334,8 +2489,11 @@
       <c r="E37" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2351,8 +2509,11 @@
       <c r="E38" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2368,8 +2529,11 @@
       <c r="E39" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2385,8 +2549,11 @@
       <c r="E40" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2402,8 +2569,11 @@
       <c r="E41" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2419,8 +2589,11 @@
       <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2436,8 +2609,11 @@
       <c r="E43" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2453,8 +2629,11 @@
       <c r="E44" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="E45" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2487,8 +2669,11 @@
       <c r="E46" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2504,8 +2689,11 @@
       <c r="E47" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2521,8 +2709,11 @@
       <c r="E48" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2538,8 +2729,11 @@
       <c r="E49" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2555,8 +2749,11 @@
       <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2572,8 +2769,11 @@
       <c r="E51" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2589,8 +2789,11 @@
       <c r="E52" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -2606,8 +2809,11 @@
       <c r="E53" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -2623,8 +2829,11 @@
       <c r="E54" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -2640,8 +2849,11 @@
       <c r="E55" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2657,8 +2869,11 @@
       <c r="E56" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2674,8 +2889,11 @@
       <c r="E57" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -2691,8 +2909,11 @@
       <c r="E58" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -2708,8 +2929,11 @@
       <c r="E59" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -2724,6 +2948,9 @@
       </c>
       <c r="E60" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C1391B-0E7A-4A81-ADAE-CC354B6670EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +34,12 @@
     <t>阵营</t>
   </si>
   <si>
+    <t>释放特效</t>
+  </si>
+  <si>
+    <t>受击特效</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -67,6 +67,12 @@
     <t>Group</t>
   </si>
   <si>
+    <t>CastSE</t>
+  </si>
+  <si>
+    <t>HitSE</t>
+  </si>
+  <si>
     <t>太祖长拳</t>
   </si>
   <si>
@@ -78,9 +84,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>0.5;0.5</t>
     </r>
@@ -89,9 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;0.</t>
     </r>
@@ -100,9 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
@@ -111,9 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -122,9 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -160,6 +156,9 @@
     <t>2;1</t>
   </si>
   <si>
+    <t>YanHuiJianFa_Left|YanHuiJianFa_Right</t>
+  </si>
+  <si>
     <t>青芒指</t>
   </si>
   <si>
@@ -216,9 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>0.4;0.75;</t>
     </r>
@@ -227,9 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -238,9 +233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>.7;1.5</t>
     </r>
@@ -261,6 +254,9 @@
     <t>foshanwuyingjiao</t>
   </si>
   <si>
+    <t>WuYingJiao_HitInkContinued_Left|WuYingJiao_HitInkContinued_Right</t>
+  </si>
+  <si>
     <t>弹指神功</t>
   </si>
   <si>
@@ -272,9 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2;</t>
     </r>
@@ -283,9 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -294,9 +286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -305,9 +295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -316,9 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -327,9 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -338,9 +322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -349,9 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -368,9 +348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -379,9 +357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1.5;1.5;1.5;1.5</t>
     </r>
@@ -390,9 +366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1</t>
     </r>
@@ -401,14 +375,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>.5</t>
     </r>
   </si>
   <si>
+    <t>LuanPiFengJianFa_Left|LuanPiFengJianFa_Right</t>
+  </si>
+  <si>
     <t>烈焰刀法</t>
   </si>
   <si>
@@ -468,9 +443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -479,14 +452,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1;0</t>
     </r>
   </si>
   <si>
+    <t>DuGuJiuJian_Left|DuGuJiuJian_Right</t>
+  </si>
+  <si>
     <t>凌波微步</t>
   </si>
   <si>
@@ -499,6 +473,9 @@
     <t>bahuangliuhe</t>
   </si>
   <si>
+    <t>BaHuangLiuHe</t>
+  </si>
+  <si>
     <t>天残脚</t>
   </si>
   <si>
@@ -525,9 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>d</t>
     </r>
@@ -536,9 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>agoubangfa</t>
     </r>
@@ -549,9 +522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1.5;1.1;</t>
     </r>
@@ -560,9 +531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -571,9 +540,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>.4</t>
     </r>
@@ -590,9 +557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>d</t>
     </r>
@@ -601,9 +566,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>iaoyugunfa</t>
     </r>
@@ -614,9 +577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2.1;</t>
     </r>
@@ -625,9 +586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -636,9 +595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>.2</t>
     </r>
@@ -652,9 +609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>c</t>
     </r>
@@ -663,9 +618,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>hanzhanggong</t>
     </r>
@@ -682,9 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -693,9 +644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>inlonggong</t>
     </r>
@@ -709,9 +658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>l</t>
     </r>
@@ -720,9 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>uohanfumoquan</t>
     </r>
@@ -739,9 +684,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -750,9 +693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>ianshourulaizhang</t>
     </r>
@@ -763,9 +704,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1;1</t>
     </r>
@@ -774,9 +713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1;1;1;1;1</t>
     </r>
@@ -790,9 +727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>t</t>
     </r>
@@ -801,9 +736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>aijijianfa</t>
     </r>
@@ -814,9 +747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>0.8</t>
     </r>
@@ -825,9 +756,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -836,9 +765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -847,38 +774,15 @@
     <t>太极拳</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>taiji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+    <t>taijizhang</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>0.8;0.6;0.6</t>
     </r>
@@ -887,9 +791,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1</t>
     </r>
@@ -898,9 +800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>.1</t>
     </r>
@@ -914,9 +814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -925,9 +823,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>ingliannvshenjian</t>
     </r>
@@ -941,9 +837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>b</t>
     </r>
@@ -952,9 +846,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>aimangbian</t>
     </r>
@@ -968,9 +860,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>h</t>
     </r>
@@ -979,9 +869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>uashanjianfa</t>
     </r>
@@ -995,9 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>w</t>
     </r>
@@ -1006,14 +892,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>udushenbian</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
     <t>千蛛万毒手</t>
   </si>
   <si>
@@ -1022,9 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>q</t>
     </r>
@@ -1033,14 +935,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>ianzhuwandushou</t>
     </r>
   </si>
   <si>
+    <t>0.8;0.6;1.1;1.4</t>
+  </si>
+  <si>
     <t>魔刀</t>
   </si>
   <si>
@@ -1049,9 +952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -1060,9 +961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>odao</t>
     </r>
@@ -1076,9 +975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -1087,9 +984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>odaoyishan</t>
     </r>
@@ -1103,9 +998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>b</t>
     </r>
@@ -1114,9 +1007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>odongquan</t>
     </r>
@@ -1130,9 +1021,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>y</t>
     </r>
@@ -1141,9 +1030,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>eluoxinghejian</t>
     </r>
@@ -1206,62 +1093,36 @@
     <t>wolf_attack</t>
   </si>
   <si>
-    <r>
-      <t>1.5;1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8;0.6;1.1;1.4</t>
-  </si>
-  <si>
     <t>刺客攻击1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cike_attack_1</t>
   </si>
   <si>
     <t>0.5;1.1;1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刺客攻击2</t>
   </si>
   <si>
-    <t>cike_attack_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>cike_attack_2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1269,53 +1130,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>;1.5</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastSE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitSE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>it_Light</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,36 +1170,157 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,18 +1329,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1397,13 +1549,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1412,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1422,17 +1816,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1717,31 +2155,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.2211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.8846153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6634615384615" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="80.9230769230769" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.9903846153846" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,1207 +2198,1110 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:7">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="17" spans="1:7">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="17" spans="1:7">
+      <c r="A18" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>3001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="17" spans="1:7">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" ht="17" spans="1:7">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="17" spans="1:7">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="17" spans="1:7">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>4003</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="17" spans="1:7">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>4004</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="17" spans="1:7">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>4005</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="17" spans="1:7">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>4006</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" ht="17" spans="1:7">
       <c r="A39" s="2">
-        <v>35</v>
+        <v>4007</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="17" spans="1:7">
       <c r="A40" s="2">
-        <v>36</v>
+        <v>4008</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" ht="17" spans="1:7">
       <c r="A41" s="2">
-        <v>37</v>
+        <v>4009</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" ht="17" spans="1:7">
       <c r="A42" s="2">
-        <v>38</v>
+        <v>4010</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" ht="17" spans="1:7">
       <c r="A43" s="2">
-        <v>39</v>
+        <v>4011</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" ht="17" spans="1:7">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>4012</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="17" spans="1:7">
       <c r="A45" s="2">
-        <v>41</v>
+        <v>4013</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" ht="17" spans="1:7">
       <c r="A46" s="2">
-        <v>42</v>
+        <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" ht="17" spans="1:7">
       <c r="A47" s="2">
-        <v>43</v>
+        <v>4015</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" ht="17" spans="1:7">
       <c r="A48" s="2">
-        <v>44</v>
+        <v>4016</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" ht="17" spans="1:7">
       <c r="A49" s="2">
-        <v>45</v>
+        <v>4017</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>46</v>
+        <v>4018</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>47</v>
+        <v>4019</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D51" s="2">
         <v>0.7</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>48</v>
+        <v>4020</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2">
         <v>0.9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>49</v>
+        <v>4021</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>50</v>
+        <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>51</v>
+        <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2">
         <v>0.8</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>52</v>
+        <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>53</v>
+        <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2">
         <v>0.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>54</v>
+        <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
+        <v>4027</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>55</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" ht="17" spans="1:7">
       <c r="A60" s="2">
-        <v>56</v>
+        <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G60" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+  <sortState ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1F8E0-BF10-4453-B225-3FC3953F09A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -604,6 +610,555 @@
     <t>禅杖功</t>
   </si>
   <si>
+    <t>1.1;1.1;1.1;1.1</t>
+  </si>
+  <si>
+    <t>擒龙功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>inlonggong</t>
+    </r>
+  </si>
+  <si>
+    <t>罗汉伏魔拳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uohanfumoquan</t>
+    </r>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+  <si>
+    <t>千手如来掌</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ianshourulaizhang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1;1;1;1;1</t>
+    </r>
+  </si>
+  <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aijijianfa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>太极拳</t>
+  </si>
+  <si>
+    <t>taijizhang</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8;0.6;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <t>青莲女神剑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ingliannvshenjian</t>
+    </r>
+  </si>
+  <si>
+    <t>白蟒鞭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aimangbian</t>
+    </r>
+  </si>
+  <si>
+    <t>华山剑法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uashanjianfa</t>
+    </r>
+  </si>
+  <si>
+    <t>五毒神鞭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>udushenbian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
+    <t>千蛛万毒手</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ianzhuwandushou</t>
+    </r>
+  </si>
+  <si>
+    <t>0.8;0.6;1.1;1.4</t>
+  </si>
+  <si>
+    <t>魔刀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odao</t>
+    </r>
+  </si>
+  <si>
+    <t>魔刀一闪</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odaoyishan</t>
+    </r>
+  </si>
+  <si>
+    <t>波动拳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odongquan</t>
+    </r>
+  </si>
+  <si>
+    <t>夜落星河剑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eluoxinghejian</t>
+    </r>
+  </si>
+  <si>
+    <t>山贼攻击1</t>
+  </si>
+  <si>
+    <t>shanzei_attack_1</t>
+  </si>
+  <si>
+    <t>山贼攻击2</t>
+  </si>
+  <si>
+    <t>shanzei_attack_2</t>
+  </si>
+  <si>
+    <t>山大王攻击1</t>
+  </si>
+  <si>
+    <t>shanzeiBoss_attack_1</t>
+  </si>
+  <si>
+    <t>山大王攻击2</t>
+  </si>
+  <si>
+    <t>shanzeiBoss_attack_2</t>
+  </si>
+  <si>
+    <t>1.6;2.5;2.5</t>
+  </si>
+  <si>
+    <t>熊攻击</t>
+  </si>
+  <si>
+    <t>bear_attack</t>
+  </si>
+  <si>
+    <t>野猪攻击</t>
+  </si>
+  <si>
+    <t>boar_attack</t>
+  </si>
+  <si>
+    <t>鹿攻击</t>
+  </si>
+  <si>
+    <t>deer_attack</t>
+  </si>
+  <si>
+    <t>蛇攻击</t>
+  </si>
+  <si>
+    <t>snake_attack</t>
+  </si>
+  <si>
+    <t>狼攻击</t>
+  </si>
+  <si>
+    <t>wolf_attack</t>
+  </si>
+  <si>
+    <t>刺客攻击1</t>
+  </si>
+  <si>
+    <t>cike_attack_1</t>
+  </si>
+  <si>
+    <t>0.5;1.1;1</t>
+  </si>
+  <si>
+    <t>刺客攻击2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cike_attack_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1.5</t>
+    </r>
+  </si>
+  <si>
+    <t>御剑术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujianshu_huashan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方弟子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianglongzhang_qiaofeng</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rulaishenzhang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fangzhang</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -622,44 +1177,59 @@
       </rPr>
       <t>hanzhanggong</t>
     </r>
-  </si>
-  <si>
-    <t>1.1;1.1;1.1;1.1</t>
-  </si>
-  <si>
-    <t>擒龙功</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>inlonggong</t>
-    </r>
-  </si>
-  <si>
-    <t>罗汉伏魔拳</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阳功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捞月铲法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuyanggong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>laoyuechanfa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yijinjing_saodiseng</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚不坏身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingangbuhuaishen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉葫击</t>
+  </si>
+  <si>
+    <t>zuihuji</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuhuolianji</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒火连击</t>
+  </si>
+  <si>
+    <t>莲花落</t>
+  </si>
+  <si>
+    <t>dagoubangfa_hongqi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>l</t>
     </r>
     <r>
@@ -667,486 +1237,281 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uohanfumoquan</t>
-    </r>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>千手如来掌</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ianshourulaizhang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1;1;1;1;1</t>
-    </r>
-  </si>
-  <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aijijianfa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>太极拳</t>
-  </si>
-  <si>
-    <t>taijizhang</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.8;0.6;0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.1</t>
-    </r>
-  </si>
-  <si>
-    <t>青莲女神剑</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ingliannvshenjian</t>
-    </r>
-  </si>
-  <si>
-    <t>白蟒鞭</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aimangbian</t>
-    </r>
-  </si>
-  <si>
-    <t>华山剑法</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uashanjianfa</t>
-    </r>
-  </si>
-  <si>
-    <t>五毒神鞭</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>udushenbian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.5;1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-  </si>
-  <si>
-    <t>千蛛万毒手</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ianzhuwandushou</t>
-    </r>
-  </si>
-  <si>
-    <t>0.8;0.6;1.1;1.4</t>
-  </si>
-  <si>
-    <t>魔刀</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odao</t>
-    </r>
-  </si>
-  <si>
-    <t>魔刀一闪</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odaoyishan</t>
-    </r>
-  </si>
-  <si>
-    <t>波动拳</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odongquan</t>
-    </r>
-  </si>
-  <si>
-    <t>夜落星河剑</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eluoxinghejian</t>
-    </r>
-  </si>
-  <si>
-    <t>山贼攻击1</t>
-  </si>
-  <si>
-    <t>shanzei_attack_1</t>
-  </si>
-  <si>
-    <t>山贼攻击2</t>
-  </si>
-  <si>
-    <t>shanzei_attack_2</t>
-  </si>
-  <si>
-    <t>山大王攻击1</t>
-  </si>
-  <si>
-    <t>shanzeiBoss_attack_1</t>
-  </si>
-  <si>
-    <t>山大王攻击2</t>
-  </si>
-  <si>
-    <t>shanzeiBoss_attack_2</t>
-  </si>
-  <si>
-    <t>1.6;2.5;2.5</t>
-  </si>
-  <si>
-    <t>熊攻击</t>
-  </si>
-  <si>
-    <t>bear_attack</t>
-  </si>
-  <si>
-    <t>野猪攻击</t>
-  </si>
-  <si>
-    <t>boar_attack</t>
-  </si>
-  <si>
-    <t>鹿攻击</t>
-  </si>
-  <si>
-    <t>deer_attack</t>
-  </si>
-  <si>
-    <t>蛇攻击</t>
-  </si>
-  <si>
-    <t>snake_attack</t>
-  </si>
-  <si>
-    <t>狼攻击</t>
-  </si>
-  <si>
-    <t>wolf_attack</t>
-  </si>
-  <si>
-    <t>刺客攻击1</t>
-  </si>
-  <si>
-    <t>cike_attack_1</t>
-  </si>
-  <si>
-    <t>0.5;1.1;1</t>
-  </si>
-  <si>
-    <t>刺客攻击2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cike_attack_2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1.5</t>
-    </r>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ianhualuo</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijijianfa_zhangzhenren</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijiquan_zhangzhenren</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijijianfa_zangdaoren</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijiquan_zangdaoren</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极剑法_张真人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳_张真人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极剑法_脏道人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳_脏道人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>言灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤一掷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖里乾坤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>qingliannvshenjian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dubi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujianshu_qiubujun</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanjianguizong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞掌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixiazhang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dizangyin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanluotie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎罗帖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qianzhuwandushou_hongyao</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罗朱网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianluozhuwang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinwudao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火拳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoquan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影剑舞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianwu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanyingjianwu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神光普照</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神霄雷法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenguangpuzhao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenxiaoleifa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiankunyizhi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiuliqiankun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>miejue1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>miejue2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>教主1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>教主2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiaozhu1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiaozhu2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiantong1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiantong2</t>
+  </si>
+  <si>
+    <t>仙童1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙童2</t>
+  </si>
+  <si>
+    <t>玄女1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄女2</t>
+  </si>
+  <si>
+    <t>xuannv1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuannv2</t>
+  </si>
+  <si>
+    <t>降龙掌_乔峰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来神掌_方丈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋经_扫地僧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒法_洪七</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青莲女神剑_独臂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千蛛万毒手_红药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,157 +1535,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,204 +1577,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1549,253 +1611,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,62 +1635,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2155,33 +1937,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.2211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8846153846154" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6634615384615" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="80.9230769230769" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.9903846153846" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2227,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2250,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2273,7 +2054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -2291,7 +2072,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -2309,7 +2090,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -2327,7 +2108,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -2348,7 +2129,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -2366,7 +2147,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -2384,7 +2165,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -2402,7 +2183,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -2420,7 +2201,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -2438,7 +2219,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -2456,7 +2237,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="17" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -2474,7 +2255,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -2492,7 +2273,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
@@ -2513,7 +2294,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="17" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -2531,7 +2312,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="17" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -2552,7 +2333,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
@@ -2570,7 +2351,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
@@ -2584,11 +2365,11 @@
         <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
@@ -2606,7 +2387,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
@@ -2624,7 +2405,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
@@ -2642,7 +2423,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
@@ -2660,7 +2441,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
@@ -2678,7 +2459,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="17" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
@@ -2699,7 +2480,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
@@ -2717,7 +2498,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
@@ -2738,7 +2519,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
@@ -2756,7 +2537,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
@@ -2774,7 +2555,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
@@ -2792,7 +2573,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" ht="17" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
@@ -2805,12 +2586,12 @@
       <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>97</v>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" ht="17" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
@@ -2828,213 +2609,213 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" ht="17" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>101</v>
+      <c r="B35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" ht="17" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" ht="17" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" ht="17" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" ht="17" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" ht="17" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>115</v>
+      <c r="B40" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" ht="17" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" ht="17" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>120</v>
+      <c r="B42" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" ht="17" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" ht="17" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" ht="17" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>127</v>
+      <c r="B45" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" ht="17" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>30</v>
@@ -3044,15 +2825,15 @@
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" ht="17" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>132</v>
+      <c r="B47" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>30</v>
@@ -3062,123 +2843,123 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" ht="17" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" ht="17" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>30</v>
+      <c r="B49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.7</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>138</v>
+      <c r="B50" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.7</v>
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>143</v>
+      <c r="B52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D52" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>146</v>
+      <c r="B53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.8</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -3188,33 +2969,33 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D55" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -3224,84 +3005,780 @@
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.5</v>
+        <v>157</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>159</v>
+      <c r="B59" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" ht="17" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>4028</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="4" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>5002</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>5003</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>5004</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>5005</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>5006</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5007</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>5008</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>5009</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>5010</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>5011</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>5012</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>5013</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>5014</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>5015</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>5016</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>5017</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>5018</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>5019</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>5020</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>5021</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>5022</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>5023</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" s="4"/>
+      <c r="C82" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>5024</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>5025</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>5026</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>5027</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>5028</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>5029</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>5030</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>5031</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>5032</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>5033</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>5034</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>5035</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>5036</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>5037</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>5038</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>5039</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>5040</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>5041</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>5042</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -129,6 +129,12 @@
     <t>己方</t>
   </si>
   <si>
+    <t>LuanPiFengJianFa_Left|LuanPiFengJianFa_Right</t>
+  </si>
+  <si>
+    <t>WuYingJiao_HitInkContinued_Left|WuYingJiao_HitInkContinued_Right</t>
+  </si>
+  <si>
     <t>庖丁解牛</t>
   </si>
   <si>
@@ -254,9 +260,6 @@
     <t>foshanwuyingjiao</t>
   </si>
   <si>
-    <t>WuYingJiao_HitInkContinued_Left|WuYingJiao_HitInkContinued_Right</t>
-  </si>
-  <si>
     <t>弹指神功</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
       </rPr>
       <t>.5</t>
     </r>
-  </si>
-  <si>
-    <t>LuanPiFengJianFa_Left|LuanPiFengJianFa_Right</t>
   </si>
   <si>
     <t>烈焰刀法</t>
@@ -2164,9 +2164,9 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2177,7 +2177,7 @@
     <col min="4" max="4" width="26.6634615384615" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="80.9230769230769" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.9903846153846" style="2" customWidth="1"/>
+    <col min="7" max="7" width="84.9326923076923" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2289,74 +2289,91 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2364,193 +2381,242 @@
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" ht="17" spans="1:7">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" ht="17" spans="1:7">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" ht="17" spans="1:7">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
@@ -2563,12 +2629,17 @@
         <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
@@ -2581,12 +2652,17 @@
         <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -2604,7 +2680,12 @@
       <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
@@ -2617,12 +2698,17 @@
         <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
@@ -2635,12 +2721,17 @@
         <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
@@ -2658,7 +2749,12 @@
       <c r="E25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
@@ -2671,12 +2767,17 @@
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" ht="17" spans="1:7">
       <c r="A27" s="2">
@@ -2697,7 +2798,9 @@
       <c r="F27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
@@ -2710,12 +2813,17 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
@@ -2728,7 +2836,7 @@
         <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
@@ -2736,7 +2844,9 @@
       <c r="F29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
@@ -2749,12 +2859,17 @@
         <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
@@ -2767,12 +2882,17 @@
         <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
@@ -2785,12 +2905,17 @@
         <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" ht="17" spans="1:7">
       <c r="A33" s="2">
@@ -2808,7 +2933,12 @@
       <c r="E33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" ht="17" spans="1:7">
       <c r="A34" s="2">
@@ -2826,7 +2956,12 @@
       <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" ht="17" spans="1:7">
       <c r="A35" s="2">
@@ -2844,7 +2979,12 @@
       <c r="E35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" ht="17" spans="1:7">
       <c r="A36" s="2">
@@ -2862,7 +3002,12 @@
       <c r="E36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" ht="17" spans="1:7">
       <c r="A37" s="2">
@@ -2880,7 +3025,12 @@
       <c r="E37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" ht="17" spans="1:7">
       <c r="A38" s="2">
@@ -2898,7 +3048,12 @@
       <c r="E38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="F38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" ht="17" spans="1:7">
       <c r="A39" s="2">
@@ -2916,7 +3071,12 @@
       <c r="E39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" ht="17" spans="1:7">
       <c r="A40" s="2">
@@ -2934,7 +3094,12 @@
       <c r="E40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" ht="17" spans="1:7">
       <c r="A41" s="2">
@@ -2952,7 +3117,12 @@
       <c r="E41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" ht="17" spans="1:7">
       <c r="A42" s="2">
@@ -2970,7 +3140,12 @@
       <c r="E42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" ht="17" spans="1:7">
       <c r="A43" s="2">
@@ -2983,12 +3158,17 @@
         <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="F43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" ht="17" spans="1:7">
       <c r="A44" s="2">
@@ -3006,7 +3186,12 @@
       <c r="E44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" ht="17" spans="1:7">
       <c r="A45" s="2">
@@ -3024,7 +3209,12 @@
       <c r="E45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="F45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" ht="17" spans="1:7">
       <c r="A46" s="2">
@@ -3037,12 +3227,17 @@
         <v>131</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="F46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" ht="17" spans="1:7">
       <c r="A47" s="2">
@@ -3055,12 +3250,17 @@
         <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" ht="17" spans="1:7">
       <c r="A48" s="2">
@@ -3073,12 +3273,17 @@
         <v>135</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="F48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" ht="17" spans="1:7">
       <c r="A49" s="2">
@@ -3091,12 +3296,17 @@
         <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="F49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
@@ -3114,7 +3324,12 @@
       <c r="E50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="F50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
@@ -3132,7 +3347,12 @@
       <c r="E51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="F51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
@@ -3150,7 +3370,12 @@
       <c r="E52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="F52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
@@ -3168,7 +3393,12 @@
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="F53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
@@ -3186,7 +3416,12 @@
       <c r="E54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
@@ -3204,7 +3439,12 @@
       <c r="E55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="F55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
@@ -3222,7 +3462,12 @@
       <c r="E56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="F56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
@@ -3240,7 +3485,12 @@
       <c r="E57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="F57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
@@ -3258,7 +3508,12 @@
       <c r="E58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="F58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
@@ -3276,7 +3531,12 @@
       <c r="E59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" ht="17" spans="1:7">
       <c r="A60" s="2">
@@ -3294,7 +3554,12 @@
       <c r="E60" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:C15">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>受击特效</t>
   </si>
   <si>
+    <t>攻击声音</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>HitSE</t>
   </si>
   <si>
+    <t>AttackSound</t>
+  </si>
+  <si>
     <t>太祖长拳</t>
   </si>
   <si>
@@ -1069,10 +1075,16 @@
     <t>bear_attack</t>
   </si>
   <si>
+    <t>BearSound</t>
+  </si>
+  <si>
     <t>野猪攻击</t>
   </si>
   <si>
-    <t>boar_attack</t>
+    <t>pig_attack</t>
+  </si>
+  <si>
+    <t>PigSound</t>
   </si>
   <si>
     <t>鹿攻击</t>
@@ -1081,16 +1093,25 @@
     <t>deer_attack</t>
   </si>
   <si>
+    <t>DeerSound</t>
+  </si>
+  <si>
     <t>蛇攻击</t>
   </si>
   <si>
     <t>snake_attack</t>
   </si>
   <si>
+    <t>SnakeSound</t>
+  </si>
+  <si>
     <t>狼攻击</t>
   </si>
   <si>
     <t>wolf_attack</t>
+  </si>
+  <si>
+    <t>WolfSound</t>
   </si>
   <si>
     <t>刺客攻击1</t>
@@ -1141,10 +1162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1165,19 +1186,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,14 +1207,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,10 +1221,48 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1236,16 +1281,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,7 +1297,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,50 +1326,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1341,13 +1361,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,109 +1499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,49 +1517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,11 +1570,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,6 +1599,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,26 +1623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,169 +1657,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1806,9 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,54 +1835,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2159,29 +2176,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.2211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8846153846154" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6634615384615" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="80.9230769230769" style="2" customWidth="1"/>
-    <col min="7" max="7" width="84.9326923076923" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.10909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.0909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.2727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.7272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.9272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="84.9363636363636" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,97 +2221,109 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2301,22 +2331,22 @@
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2324,22 +2354,22 @@
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2347,22 +2377,22 @@
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2370,22 +2400,22 @@
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2393,22 +2423,22 @@
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2416,22 +2446,22 @@
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2439,22 +2469,22 @@
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2462,22 +2492,22 @@
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2485,229 +2515,229 @@
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>21</v>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>21</v>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2715,22 +2745,22 @@
         <v>3001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2738,22 +2768,22 @@
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>67</v>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2761,45 +2791,45 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2807,22 +2837,22 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2830,22 +2860,22 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2853,22 +2883,22 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2876,22 +2906,22 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2899,436 +2929,436 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>97</v>
+      <c r="E36" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>97</v>
+      <c r="C37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>97</v>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>97</v>
+      <c r="C39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>97</v>
+      <c r="C40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
+      <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>97</v>
+      <c r="E41" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>97</v>
+      <c r="E42" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>123</v>
+      <c r="B43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>97</v>
+      <c r="C44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>97</v>
+      <c r="C45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>131</v>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>137</v>
+      <c r="B49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>138</v>
+      <c r="B50" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>97</v>
+      <c r="E50" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3336,22 +3366,22 @@
         <v>4019</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2">
         <v>0.7</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>97</v>
+      <c r="E51" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3359,22 +3389,22 @@
         <v>4020</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2">
         <v>0.9</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>97</v>
+      <c r="E52" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3382,183 +3412,198 @@
         <v>4021</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>97</v>
+        <v>148</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>148</v>
+      <c r="B54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>97</v>
+      <c r="E54" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>150</v>
+      <c r="B55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D55" s="2">
         <v>0.8</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>97</v>
+      <c r="E55" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>152</v>
+      <c r="B56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>97</v>
+      <c r="E56" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>154</v>
+      <c r="B57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D57" s="2">
         <v>0.5</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>97</v>
+      <c r="E57" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>156</v>
+      <c r="B58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>97</v>
+      <c r="E58" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>97</v>
+      <c r="B59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" ht="17" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>4028</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>97</v>
+      <c r="B60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E2CD0B-D6FC-46F3-B9B5-DC96DEF04235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C19AEA-04DC-4753-AE41-5A4868C9E454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -894,28 +894,6 @@
         <charset val="134"/>
       </rPr>
       <t>.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ingliannvshenjian</t>
     </r>
   </si>
   <si>
@@ -2322,6 +2300,85 @@
   </si>
   <si>
     <t>如来神掌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaiMangBian_Left|BaiMangBian_Right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaiMangBian_Hit_Left|BaiMangBian_Hit_Right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>御剑术_华山</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HuaShanJian_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HuaShanJian_Right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuaShanJian_Hit_Left|HuaShanJian_Hit_Right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QingLianJianFa_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QingLianJianFa_Right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QingLianJianFa_Hit_Left|QingLianJianFa_Hit_Right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46;1.15;2.04;3.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingnianshennvjian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.2;1;-1;4</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2812,8 +2869,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2845,13 +2902,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2860,7 +2917,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -2877,13 +2934,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -2909,13 +2966,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2941,13 +2998,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -2956,7 +3013,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,7 +3037,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3004,7 +3061,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3028,7 +3085,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3045,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3055,7 +3112,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,10 +3136,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,7 +3158,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,7 +3182,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3149,7 +3206,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3173,7 +3230,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3192,7 +3249,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3216,7 +3273,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3227,7 +3284,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
@@ -3240,7 +3297,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3261,13 +3318,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3291,7 +3348,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,19 +3365,19 @@
         <v>130</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,17 +3394,17 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3355,7 +3412,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
@@ -3371,10 +3428,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3398,7 +3455,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3422,7 +3479,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3430,7 +3487,7 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
@@ -3449,7 +3506,7 @@
         <v>126</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,10 +3530,10 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3490,7 +3547,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3500,10 +3557,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,19 +3577,19 @@
         <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3551,7 +3608,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3565,7 +3622,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -3575,10 +3632,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -3601,10 +3658,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,7 +3675,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3628,7 +3685,7 @@
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3642,7 +3699,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -3652,10 +3709,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,7 +3736,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3739,8 +3796,8 @@
       <c r="D36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>138</v>
+      <c r="E36" s="4">
+        <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>82</v>
@@ -3783,8 +3840,8 @@
       <c r="D38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>141</v>
+      <c r="E38" s="4">
+        <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>82</v>
@@ -3799,20 +3856,25 @@
       <c r="B39" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>142</v>
+      <c r="C39" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3822,19 +3884,24 @@
         <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3844,19 +3911,24 @@
         <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3866,13 +3938,13 @@
         <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>146</v>
+      <c r="E42" s="4">
+        <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>82</v>
@@ -3888,13 +3960,13 @@
         <v>97</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>98</v>
+      <c r="E43" s="4">
+        <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>82</v>
@@ -3910,22 +3982,22 @@
         <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3936,22 +4008,22 @@
         <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,7 +4034,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -3975,10 +4047,10 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,7 +4061,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4002,10 +4074,10 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4022,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>82</v>
@@ -4044,7 +4116,7 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>82</v>
@@ -4065,7 +4137,7 @@
         <v>0.9</v>
       </c>
       <c r="E50" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>82</v>
@@ -4085,8 +4157,8 @@
       <c r="D51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>111</v>
+      <c r="E51" s="2">
+        <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>82</v>
@@ -4107,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>82</v>
@@ -4128,7 +4200,7 @@
         <v>0.8</v>
       </c>
       <c r="E53" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>82</v>
@@ -4149,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>82</v>
@@ -4170,7 +4242,7 @@
         <v>0.5</v>
       </c>
       <c r="E55" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>82</v>
@@ -4191,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>82</v>
@@ -4211,8 +4283,8 @@
       <c r="D57" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>124</v>
+      <c r="E57" s="4">
+        <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>82</v>
@@ -4227,13 +4299,13 @@
         <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>153</v>
+      <c r="E58" s="4">
+        <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>82</v>
@@ -4245,10 +4317,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4261,10 +4333,10 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4272,10 +4344,10 @@
         <v>5001</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
@@ -4284,14 +4356,14 @@
         <v>1.55</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4302,7 +4374,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -4311,13 +4383,13 @@
         <v>1.3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,10 +4397,10 @@
         <v>5003</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4337,14 +4409,14 @@
         <v>0.6</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,7 +4427,7 @@
         <v>84</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>85</v>
@@ -4364,14 +4436,14 @@
         <v>0.72</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,10 +4451,10 @@
         <v>5005</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -4391,14 +4463,14 @@
         <v>2.5</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4406,10 +4478,10 @@
         <v>5006</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
@@ -4418,11 +4490,11 @@
         <v>1.77</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4430,10 +4502,10 @@
         <v>5007</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -4442,14 +4514,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4457,10 +4529,10 @@
         <v>5008</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -4469,14 +4541,14 @@
         <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,14 +4556,14 @@
         <v>5009</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" s="4"/>
     </row>
@@ -4500,14 +4572,14 @@
         <v>5010</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" s="4"/>
     </row>
@@ -4516,14 +4588,14 @@
         <v>5011</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" s="4"/>
     </row>
@@ -4532,14 +4604,14 @@
         <v>5012</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" s="4"/>
     </row>
@@ -4548,14 +4620,14 @@
         <v>5013</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -4564,14 +4636,14 @@
         <v>5014</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -4580,14 +4652,14 @@
         <v>5015</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G74" s="4"/>
     </row>
@@ -4596,14 +4668,14 @@
         <v>5016</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G75" s="4"/>
     </row>
@@ -4612,14 +4684,14 @@
         <v>5017</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -4628,14 +4700,14 @@
         <v>5018</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -4644,14 +4716,14 @@
         <v>5019</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -4660,14 +4732,14 @@
         <v>5020</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -4676,14 +4748,14 @@
         <v>5021</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G80" s="4"/>
     </row>
@@ -4692,14 +4764,14 @@
         <v>5022</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -4708,14 +4780,14 @@
         <v>5023</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -4726,14 +4798,14 @@
         <v>5024</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G83" s="4"/>
     </row>
@@ -4742,14 +4814,14 @@
         <v>5025</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" s="4"/>
     </row>
@@ -4758,14 +4830,14 @@
         <v>5026</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -4774,14 +4846,14 @@
         <v>5027</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="4"/>
     </row>
@@ -4790,14 +4862,14 @@
         <v>5028</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G87" s="4"/>
     </row>
@@ -4806,14 +4878,14 @@
         <v>5029</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -4822,14 +4894,14 @@
         <v>5030</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -4838,14 +4910,14 @@
         <v>5031</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -4854,14 +4926,14 @@
         <v>5032</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -4870,14 +4942,14 @@
         <v>5033</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -4886,14 +4958,14 @@
         <v>5034</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -4902,14 +4974,14 @@
         <v>5035</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -4918,14 +4990,14 @@
         <v>5036</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -4934,14 +5006,14 @@
         <v>5037</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -4950,14 +5022,14 @@
         <v>5038</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -4966,14 +5038,14 @@
         <v>5039</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -4982,14 +5054,14 @@
         <v>5040</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -4998,14 +5070,14 @@
         <v>5041</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5014,14 +5086,14 @@
         <v>5042</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C19AEA-04DC-4753-AE41-5A4868C9E454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2241C-B17C-4E9E-9C72-67D933070F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -322,12 +322,6 @@
     <t>0.8;0.6;1.1;1.4</t>
   </si>
   <si>
-    <t>魔刀</t>
-  </si>
-  <si>
-    <t>魔刀一闪</t>
-  </si>
-  <si>
     <t>波动拳</t>
   </si>
   <si>
@@ -405,58 +399,6 @@
   <si>
     <t>RuLaiShenZhang_Muzzle_Left|RuLaiShenZhang_Muzzle_Right</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5;0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2378,6 +2320,150 @@
         <scheme val="minor"/>
       </rPr>
       <t>;1.2;1;-1;4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.5;0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wk_attack_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wk_attack_2</t>
+  </si>
+  <si>
+    <t>魔刀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍身刀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭刀一闪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈撒给</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.7;1.8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31;0.74</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YiDaoQie_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YiDaoQie_Right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LangRenDaoFa_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LangRenDaoFa_Right</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2526,7 +2612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2547,9 +2633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2866,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2882,13 +2965,17 @@
     <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="84.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="71" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="9" style="2"/>
+    <col min="24" max="24" width="30.77734375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,13 +2989,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2917,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2934,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -2952,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2966,13 +3053,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2984,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2998,13 +3085,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -3013,10 +3100,11 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -3026,8 +3114,8 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>127</v>
+      <c r="D5" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3037,10 +3125,11 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -3061,10 +3150,10 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -3085,10 +3174,10 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -3102,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3112,10 +3201,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -3136,13 +3225,13 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -3158,10 +3247,10 @@
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -3182,10 +3271,10 @@
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -3206,10 +3295,10 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -3230,10 +3319,10 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -3249,10 +3338,10 @@
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -3263,7 +3352,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -3273,10 +3362,10 @@
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -3284,7 +3373,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
@@ -3297,7 +3386,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3310,7 +3399,7 @@
       <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="2">
         <v>0.35</v>
       </c>
@@ -3318,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3338,7 +3427,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3348,7 +3437,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3362,22 +3451,22 @@
         <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,25 +3483,25 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>300</v>
+      <c r="B21" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
@@ -3428,10 +3517,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,7 +3544,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3479,7 +3568,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3487,7 +3576,7 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
@@ -3503,10 +3592,10 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,12 +3617,12 @@
       <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3547,7 +3636,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3557,10 +3646,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,22 +3663,22 @@
         <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,7 +3697,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,7 +3711,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -3632,10 +3721,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -3658,10 +3747,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,7 +3764,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3685,7 +3774,7 @@
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3699,7 +3788,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -3709,10 +3798,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3723,10 +3812,10 @@
         <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -3736,7 +3825,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,10 +3836,10 @@
         <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -3765,11 +3854,11 @@
       <c r="A35" s="2">
         <v>4003</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>88</v>
@@ -3787,14 +3876,14 @@
       <c r="A36" s="2">
         <v>4004</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -3809,14 +3898,14 @@
       <c r="A37" s="2">
         <v>4005</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -3831,14 +3920,14 @@
       <c r="A38" s="2">
         <v>4006</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3853,11 +3942,11 @@
       <c r="A39" s="2">
         <v>4007</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -3870,21 +3959,21 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -3897,51 +3986,51 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3956,11 +4045,11 @@
       <c r="A43" s="2">
         <v>4011</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>98</v>
@@ -3979,51 +4068,51 @@
         <v>4012</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>100</v>
+      <c r="B45" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,10 +4120,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4047,21 +4136,21 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>102</v>
+      <c r="B47" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4074,21 +4163,21 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>103</v>
+      <c r="B48" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4106,11 +4195,11 @@
       <c r="A49" s="2">
         <v>4017</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>105</v>
+      <c r="B49" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4127,11 +4216,11 @@
       <c r="A50" s="2">
         <v>4018</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>107</v>
+      <c r="B50" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4148,14 +4237,14 @@
       <c r="A51" s="2">
         <v>4019</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -4169,11 +4258,11 @@
       <c r="A52" s="2">
         <v>4020</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>112</v>
+      <c r="B52" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4191,10 +4280,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4212,10 +4301,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4233,10 +4322,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4254,10 +4343,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4275,13 +4364,13 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -4296,13 +4385,13 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -4317,10 +4406,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4333,769 +4422,816 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>5001</v>
+        <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="2">
+        <v>314</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="4">
         <v>2</v>
       </c>
-      <c r="E60" s="2">
-        <v>1.55</v>
+      <c r="E60" s="4">
+        <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>261</v>
+      <c r="H60" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>5002</v>
+        <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1.3</v>
+        <v>311</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>240</v>
+        <v>82</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2">
-        <v>0.6</v>
+        <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>237</v>
+      <c r="H62" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>5004</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>5002</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
       </c>
       <c r="E63" s="2">
-        <v>0.72</v>
+        <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>242</v>
+        <v>154</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
       </c>
       <c r="E64" s="2">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>5006</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
+        <v>5004</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E65" s="2">
-        <v>1.77</v>
+        <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
       <c r="E66" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
       <c r="E67" s="2">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>254</v>
+      <c r="H67" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="F68" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
       <c r="F69" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G69" s="4"/>
+      <c r="H69" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>5016</v>
+        <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>5017</v>
+        <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>5018</v>
+        <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>5019</v>
+        <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>5022</v>
+        <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>5040</v>
+        <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>5041</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>5042</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2241C-B17C-4E9E-9C72-67D933070F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F17B-BC21-41F5-819C-0E11CE5AB1DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>yanhuijianfa</t>
-  </si>
-  <si>
-    <t>2;1</t>
   </si>
   <si>
     <t>YanHuiJianFa_Left|YanHuiJianFa_Right</t>
@@ -2381,10 +2378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>舍身刀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>倭刀一闪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2464,6 +2457,62 @@
         <scheme val="minor"/>
       </rPr>
       <t>LangRenDaoFa_Right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂灭斩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5;2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1;2.6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2;1.7;2.3;2.5</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2952,8 +3001,8 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2989,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3004,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -3021,13 +3070,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -3053,13 +3102,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3085,13 +3134,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -3100,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X4" s="6"/>
     </row>
@@ -3115,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3125,7 +3174,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N5" s="5"/>
     </row>
@@ -3150,7 +3199,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3174,7 +3223,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3191,17 +3240,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3209,10 +3258,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3225,10 +3274,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3236,10 +3285,10 @@
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
@@ -3247,7 +3296,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3255,13 +3304,13 @@
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3271,7 +3320,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3279,13 +3328,13 @@
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3295,7 +3344,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3303,13 +3352,13 @@
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -3319,7 +3368,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3327,10 +3376,10 @@
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
@@ -3338,7 +3387,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3346,13 +3395,13 @@
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -3362,7 +3411,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3370,13 +3419,13 @@
         <v>2001</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -3386,7 +3435,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,10 +3443,10 @@
         <v>2002</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2">
@@ -3407,13 +3456,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3421,13 +3470,13 @@
         <v>2003</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3437,7 +3486,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3445,28 +3494,28 @@
         <v>2004</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3474,26 +3523,26 @@
         <v>2005</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3501,10 +3550,10 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -3517,10 +3566,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,13 +3577,13 @@
         <v>2007</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -3544,7 +3593,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3552,13 +3601,13 @@
         <v>2008</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -3568,7 +3617,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3576,10 +3625,10 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -3592,10 +3641,10 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,10 +3652,10 @@
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -3619,10 +3668,10 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,13 +3679,13 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3646,10 +3695,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3657,28 +3706,28 @@
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,10 +3735,10 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
@@ -3697,7 +3746,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3705,13 +3754,13 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -3721,10 +3770,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3732,13 +3781,13 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -3747,10 +3796,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3758,13 +3807,13 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3774,7 +3823,7 @@
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3782,13 +3831,13 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -3798,10 +3847,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,23 +3858,23 @@
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,19 +3882,19 @@
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4"/>
       <c r="I34" s="4"/>
@@ -3855,19 +3904,19 @@
         <v>4003</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
@@ -3877,19 +3926,19 @@
         <v>4004</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" s="4"/>
       <c r="I36" s="4"/>
@@ -3899,19 +3948,19 @@
         <v>4005</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
@@ -3921,19 +3970,19 @@
         <v>4006</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
@@ -3943,10 +3992,10 @@
         <v>4007</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -3955,14 +4004,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3970,10 +4019,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -3982,14 +4031,14 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,26 +4046,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,19 +4073,19 @@
         <v>4010</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
@@ -4046,19 +4095,19 @@
         <v>4011</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
@@ -4068,25 +4117,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,25 +4143,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4120,10 +4169,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4132,14 +4181,14 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4147,10 +4196,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4159,14 +4208,14 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,10 +4223,10 @@
         <v>4016</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4186,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
@@ -4196,10 +4245,10 @@
         <v>4017</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4208,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -4217,10 +4266,10 @@
         <v>4018</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4229,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -4238,19 +4287,19 @@
         <v>4019</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" s="4"/>
     </row>
@@ -4259,10 +4308,10 @@
         <v>4020</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4271,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" s="4"/>
     </row>
@@ -4280,10 +4329,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4292,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="4"/>
     </row>
@@ -4301,10 +4350,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4313,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="4"/>
     </row>
@@ -4322,10 +4371,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4334,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -4343,10 +4392,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4355,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="4"/>
     </row>
@@ -4364,19 +4413,19 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="4"/>
     </row>
@@ -4385,19 +4434,19 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="4"/>
     </row>
@@ -4406,10 +4455,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4418,14 +4467,14 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4433,10 +4482,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4445,11 +4494,11 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4457,22 +4506,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4480,10 +4529,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4492,14 +4541,14 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,10 +4556,10 @@
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -4519,13 +4568,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4533,10 +4582,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -4545,14 +4594,14 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4560,26 +4609,26 @@
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4587,10 +4636,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -4599,14 +4648,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4614,10 +4663,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -4626,11 +4675,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4638,10 +4687,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -4650,14 +4699,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4665,10 +4714,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -4677,14 +4726,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4692,14 +4741,14 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G70" s="4"/>
     </row>
@@ -4708,14 +4757,14 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G71" s="4"/>
     </row>
@@ -4724,14 +4773,14 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -4740,14 +4789,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -4756,14 +4805,14 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G74" s="4"/>
     </row>
@@ -4772,14 +4821,14 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G75" s="4"/>
     </row>
@@ -4788,14 +4837,14 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -4804,14 +4853,14 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -4820,14 +4869,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -4836,14 +4885,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -4852,14 +4901,14 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G80" s="4"/>
     </row>
@@ -4868,14 +4917,14 @@
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -4884,14 +4933,14 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G82" s="4"/>
     </row>
@@ -4900,14 +4949,14 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G83" s="4"/>
     </row>
@@ -4916,14 +4965,14 @@
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4934,14 +4983,14 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -4950,14 +4999,14 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G86" s="4"/>
     </row>
@@ -4966,14 +5015,14 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" s="4"/>
     </row>
@@ -4982,14 +5031,14 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -4998,14 +5047,14 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -5014,14 +5063,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -5030,14 +5079,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -5046,14 +5095,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -5062,14 +5111,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -5078,14 +5127,14 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -5094,14 +5143,14 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -5110,14 +5159,14 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5126,14 +5175,14 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5142,14 +5191,14 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5158,14 +5207,14 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5174,14 +5223,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5190,14 +5239,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -5206,14 +5255,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5222,14 +5271,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G103" s="4"/>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F17B-BC21-41F5-819C-0E11CE5AB1DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5285-74A0-4A45-9F4B-78B59F806E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,6 +714,158 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>1;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1;1;1;1;1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aijijianfa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8;0.6;0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aimangbian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5;1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>q</t>
     </r>
     <r>
@@ -724,115 +876,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ianshourulaizhang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1;1;1;1;1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aijijianfa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.8;0.6;0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.1</t>
+      <t>ianzhuwandushou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odaoyishan</t>
     </r>
   </si>
   <si>
@@ -854,74 +942,84 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>aimangbian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uashanjianfa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>udushenbian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.5;1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;2</t>
-    </r>
+      <t>odongquan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eluoxinghejian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cike_attack_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1.5</t>
+    </r>
+  </si>
+  <si>
+    <t>御剑术</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujianshu_huashan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙掌_乔峰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianglongzhang_qiaofeng</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -942,170 +1040,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ianzhuwandushou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odao</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odaoyishan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odongquan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eluoxinghejian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cike_attack_2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1.5</t>
-    </r>
-  </si>
-  <si>
-    <t>御剑术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>yujianshu_huashan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙掌_乔峰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xianglongzhang_qiaofeng</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>inlonggong</t>
     </r>
   </si>
@@ -1492,6 +1426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,6 +1443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1553,6 +1489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1580,6 +1517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1658,6 +1596,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2083,6 +2022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2110,6 +2050,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2426,6 +2367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2453,6 +2395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2481,6 +2424,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2513,6 +2457,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>.2;1.7;2.3;2.5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianfa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ianshouzhang</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uashanjian</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2541,11 +2535,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3001,8 +2997,8 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3038,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3053,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -3070,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -3102,13 +3098,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3134,13 +3130,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -3149,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="X4" s="6"/>
     </row>
@@ -3164,7 +3160,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3174,7 +3170,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N5" s="5"/>
     </row>
@@ -3199,7 +3195,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3223,7 +3219,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3240,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3250,7 +3246,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3274,10 +3270,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3296,7 +3292,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3320,7 +3316,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3344,7 +3340,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3368,7 +3364,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3387,7 +3383,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3411,7 +3407,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3422,7 +3418,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
@@ -3435,7 +3431,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3456,13 +3452,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +3482,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3503,19 +3499,19 @@
         <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3532,17 +3528,17 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3550,7 +3546,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>57</v>
@@ -3566,10 +3562,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3593,7 +3589,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,7 +3613,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,7 +3621,7 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>63</v>
@@ -3644,7 +3640,7 @@
         <v>123</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3668,10 +3664,10 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3685,7 +3681,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3695,10 +3691,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3715,19 +3711,19 @@
         <v>127</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3746,7 +3742,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,7 +3756,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -3770,10 +3766,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3787,7 +3783,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -3796,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3813,7 +3809,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3823,7 +3819,7 @@
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3837,7 +3833,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -3847,10 +3843,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3874,7 +3870,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3928,11 +3924,11 @@
       <c r="B36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -3951,10 +3947,10 @@
         <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -3976,7 +3972,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3995,7 +3991,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4008,10 +4004,10 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4022,7 +4018,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4035,10 +4031,10 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4048,24 +4044,24 @@
       <c r="B41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>139</v>
+      <c r="C41" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,11 +4071,11 @@
       <c r="B42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>140</v>
+      <c r="C42" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -4098,7 +4094,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>97</v>
@@ -4117,25 +4113,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,25 +4139,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4172,7 +4168,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4185,10 +4181,10 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,7 +4195,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4212,10 +4208,10 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,10 +4433,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -4455,10 +4451,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4471,10 +4467,10 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4482,10 +4478,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4498,7 +4494,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4506,22 +4502,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,10 +4525,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4541,14 +4537,14 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4555,7 @@
         <v>85</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -4568,13 +4564,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4582,10 +4578,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -4594,14 +4590,14 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4612,7 +4608,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>84</v>
@@ -4621,14 +4617,14 @@
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4636,10 +4632,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -4648,14 +4644,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4663,10 +4659,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -4675,11 +4671,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4687,10 +4683,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -4699,14 +4695,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4714,10 +4710,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -4726,14 +4722,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4741,14 +4737,14 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G70" s="4"/>
     </row>
@@ -4757,14 +4753,14 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G71" s="4"/>
     </row>
@@ -4773,14 +4769,14 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -4789,14 +4785,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -4805,14 +4801,14 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G74" s="4"/>
     </row>
@@ -4821,14 +4817,14 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G75" s="4"/>
     </row>
@@ -4837,14 +4833,14 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -4853,14 +4849,14 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -4869,14 +4865,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -4885,14 +4881,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -4901,14 +4897,14 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G80" s="4"/>
     </row>
@@ -4917,14 +4913,14 @@
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -4933,14 +4929,14 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G82" s="4"/>
     </row>
@@ -4949,14 +4945,14 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G83" s="4"/>
     </row>
@@ -4965,14 +4961,14 @@
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4983,14 +4979,14 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -4999,14 +4995,14 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G86" s="4"/>
     </row>
@@ -5015,14 +5011,14 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G87" s="4"/>
     </row>
@@ -5031,14 +5027,14 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -5047,14 +5043,14 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -5063,14 +5059,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -5079,14 +5075,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -5095,14 +5091,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -5111,14 +5107,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -5127,14 +5123,14 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -5143,14 +5139,14 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -5159,14 +5155,14 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5175,14 +5171,14 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5191,14 +5187,14 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5207,14 +5203,14 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5223,14 +5219,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5239,14 +5235,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -5255,14 +5251,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5271,14 +5267,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G103" s="4"/>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5285-74A0-4A45-9F4B-78B59F806E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A31C1B0-7E80-45A7-98B2-47D5B0C1EEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>太极拳</t>
   </si>
   <si>
-    <t>taijizhang</t>
-  </si>
-  <si>
     <t>青莲女神剑</t>
   </si>
   <si>
@@ -2508,6 +2505,10 @@
       </rPr>
       <t>uashanjian</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taijiquan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2997,8 +2998,8 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3034,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3049,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -3066,13 +3067,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -3098,13 +3099,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3130,13 +3131,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -3145,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X4" s="6"/>
     </row>
@@ -3160,7 +3161,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3170,7 +3171,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N5" s="5"/>
     </row>
@@ -3195,7 +3196,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3219,7 +3220,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3236,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -3246,7 +3247,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3270,10 +3271,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3292,7 +3293,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3316,7 +3317,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3340,7 +3341,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3364,7 +3365,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3383,7 +3384,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3397,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -3407,7 +3408,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3418,7 +3419,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
@@ -3431,7 +3432,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,13 +3453,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,7 +3473,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3482,7 +3483,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,22 +3497,22 @@
         <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,17 +3529,17 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,7 +3547,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>57</v>
@@ -3562,10 +3563,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3589,7 +3590,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3613,7 +3614,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3621,7 +3622,7 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>63</v>
@@ -3637,10 +3638,10 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,10 +3665,10 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,7 +3682,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3691,10 +3692,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,22 +3709,22 @@
         <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3742,7 +3743,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,7 +3757,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -3766,10 +3767,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3783,7 +3784,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -3792,10 +3793,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,7 +3810,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3819,7 +3820,7 @@
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,7 +3834,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -3843,10 +3844,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3857,10 +3858,10 @@
         <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -3870,7 +3871,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3881,10 +3882,10 @@
         <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -3903,7 +3904,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>87</v>
@@ -3925,10 +3926,10 @@
         <v>88</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -3947,10 +3948,10 @@
         <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -3969,10 +3970,10 @@
         <v>90</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3988,10 +3989,10 @@
         <v>4007</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4004,10 +4005,10 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4015,10 +4016,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4031,10 +4032,10 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4042,26 +4043,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,13 +4070,13 @@
         <v>4010</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -4091,13 +4092,13 @@
         <v>4011</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -4113,25 +4114,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,25 +4140,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4165,10 +4166,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4181,10 +4182,10 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,10 +4193,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4208,10 +4209,10 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4219,10 +4220,10 @@
         <v>4016</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4241,10 +4242,10 @@
         <v>4017</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4262,10 +4263,10 @@
         <v>4018</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4283,13 +4284,13 @@
         <v>4019</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -4304,10 +4305,10 @@
         <v>4020</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4325,10 +4326,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4346,10 +4347,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4367,10 +4368,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4388,10 +4389,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4409,13 +4410,13 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -4430,13 +4431,13 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -4451,10 +4452,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4467,10 +4468,10 @@
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4478,10 +4479,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4494,7 +4495,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4502,22 +4503,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4525,10 +4526,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4537,14 +4538,14 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,7 +4556,7 @@
         <v>85</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -4564,13 +4565,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4578,10 +4579,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -4590,14 +4591,14 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4608,7 +4609,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>84</v>
@@ -4617,14 +4618,14 @@
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4632,10 +4633,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -4644,14 +4645,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4659,10 +4660,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -4671,11 +4672,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4683,10 +4684,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -4695,14 +4696,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4710,10 +4711,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -4722,14 +4723,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4737,14 +4738,14 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G70" s="4"/>
     </row>
@@ -4753,14 +4754,14 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G71" s="4"/>
     </row>
@@ -4769,14 +4770,14 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -4785,14 +4786,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -4801,14 +4802,14 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G74" s="4"/>
     </row>
@@ -4817,14 +4818,14 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="4"/>
     </row>
@@ -4833,14 +4834,14 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -4849,14 +4850,14 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -4865,14 +4866,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -4881,14 +4882,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -4897,14 +4898,14 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G80" s="4"/>
     </row>
@@ -4913,14 +4914,14 @@
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G81" s="4"/>
     </row>
@@ -4929,14 +4930,14 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G82" s="4"/>
     </row>
@@ -4945,14 +4946,14 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G83" s="4"/>
     </row>
@@ -4961,14 +4962,14 @@
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4979,14 +4980,14 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -4995,14 +4996,14 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G86" s="4"/>
     </row>
@@ -5011,14 +5012,14 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G87" s="4"/>
     </row>
@@ -5027,14 +5028,14 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -5043,14 +5044,14 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -5059,14 +5060,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -5075,14 +5076,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -5091,14 +5092,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -5107,14 +5108,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -5123,14 +5124,14 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -5139,14 +5140,14 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -5155,14 +5156,14 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5171,14 +5172,14 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5187,14 +5188,14 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5203,14 +5204,14 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5219,14 +5220,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5235,14 +5236,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -5251,14 +5252,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5267,14 +5268,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G103" s="4"/>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A31C1B0-7E80-45A7-98B2-47D5B0C1EEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F261C-2508-4038-B68F-E18F391A13C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -2509,6 +2509,18 @@
   </si>
   <si>
     <t>taijiquan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2995,11 +3007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X103"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3894,7 +3906,9 @@
         <v>81</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -5167,7 +5181,7 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
@@ -5183,7 +5197,7 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
@@ -5199,7 +5213,7 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
@@ -5215,7 +5229,7 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
@@ -5231,7 +5245,7 @@
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
@@ -5247,7 +5261,7 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
@@ -5263,7 +5277,7 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
@@ -5278,6 +5292,29 @@
         <v>149</v>
       </c>
       <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>9901</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F261C-2508-4038-B68F-E18F391A13C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5AF60F-FC38-4272-A047-38D5C474C05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="325">
   <si>
     <t>ID</t>
   </si>
@@ -2521,6 +2521,23 @@
   </si>
   <si>
     <t>己方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QianShouZhang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Hit_Left|QianShouZhang_Hit_Right</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3010,8 +3027,8 @@
   <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3946,12 +3963,15 @@
         <v>132</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1013650-FF0D-4298-92E4-2300F81D0D5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="336">
   <si>
     <t>ID</t>
   </si>
@@ -79,6 +85,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Atk</t>
@@ -89,6 +96,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Delay</t>
@@ -104,6 +112,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Foot</t>
@@ -114,6 +123,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>SE</t>
@@ -140,6 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5;0.5</t>
@@ -149,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;0.</t>
@@ -158,6 +170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -167,6 +180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -176,6 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -190,6 +205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Left|</t>
@@ -199,6 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Right</t>
@@ -249,6 +266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Left|</t>
@@ -258,6 +276,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Right</t>
@@ -314,6 +333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.4;0.75;</t>
@@ -323,6 +343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -332,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.7;1.5</t>
@@ -361,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>WuYingJiao_Hit</t>
@@ -370,6 +393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|WuYingJiao_Hit_Right</t>
@@ -387,6 +411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;</t>
@@ -396,6 +421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -405,6 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -414,6 +441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -423,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -432,6 +461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -441,6 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -450,6 +481,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -467,6 +499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -476,6 +509,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5;1.5;1.5;1.5</t>
@@ -485,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -494,6 +529,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5</t>
@@ -523,6 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Left|</t>
@@ -532,6 +569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Right</t>
@@ -549,6 +587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Muzzle_Left</t>
@@ -558,6 +597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YuJianShu_Muzzle_Right</t>
@@ -569,6 +609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Left|</t>
@@ -578,6 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Right</t>
@@ -613,6 +655,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Left</t>
@@ -622,6 +665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -631,6 +675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Right</t>
@@ -651,6 +696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XiangLongShiBaZhang_Hit_Left|</t>
@@ -660,6 +706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XiangLongShiBaZhang_Hit_Right</t>
@@ -683,6 +730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Left|</t>
@@ -692,6 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Right</t>
@@ -709,6 +758,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -718,6 +768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;0</t>
@@ -729,6 +780,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -738,6 +790,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -747,7 +800,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.69;2.65</t>
     </r>
@@ -779,6 +832,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BaHuangLiuHe</t>
@@ -788,6 +842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>E</t>
@@ -808,6 +863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;2;2</t>
@@ -817,6 +873,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -831,6 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Left|</t>
@@ -840,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Right</t>
@@ -857,6 +916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -866,6 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;0.5</t>
@@ -883,6 +944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -892,6 +954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;1;2</t>
@@ -903,6 +966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Pre_</t>
@@ -912,6 +976,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -921,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YiJinJing_Pre_Right</t>
@@ -932,6 +998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Left|</t>
@@ -941,6 +1008,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Right</t>
@@ -955,6 +1023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -964,6 +1033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>agoubangfa</t>
@@ -975,6 +1045,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.1;</t>
@@ -984,6 +1055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -993,6 +1065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.4</t>
@@ -1010,6 +1083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -1019,6 +1093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>iaoyugunfa</t>
@@ -1030,6 +1105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.1;</t>
@@ -1039,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1048,6 +1125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2</t>
@@ -1062,6 +1140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -1071,6 +1150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uohanfumoquan</t>
@@ -1088,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1097,6 +1178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianshouzhang</t>
@@ -1108,6 +1190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1;1</t>
@@ -1117,6 +1200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;1;1;1;1</t>
@@ -1128,6 +1212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QianShouZhang</t>
@@ -1137,6 +1222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Hit_Left|QianShouZhang_Hit_Right</t>
@@ -1151,6 +1237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -1160,6 +1247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aijijianfa</t>
@@ -1171,6 +1259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8</t>
@@ -1180,6 +1269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -1189,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1206,6 +1297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8;0.6;0.6</t>
@@ -1215,6 +1307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -1224,6 +1317,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1</t>
@@ -1241,6 +1335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Left|</t>
@@ -1250,6 +1345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Right</t>
@@ -1267,6 +1363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1276,6 +1373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aimangbian</t>
@@ -1296,6 +1394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>h</t>
@@ -1305,6 +1404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uashanjian</t>
@@ -1316,6 +1416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1325,6 +1426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.2;1;-1;4</t>
@@ -1339,6 +1441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Left|</t>
@@ -1348,6 +1451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Right</t>
@@ -1368,6 +1472,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.5</t>
@@ -1377,6 +1482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -1391,6 +1497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1400,6 +1507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianzhuwandushou</t>
@@ -1417,6 +1525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1426,6 +1535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odao</t>
@@ -1437,6 +1547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;2;</t>
@@ -1446,6 +1557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1455,6 +1567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1;2.6</t>
@@ -1472,6 +1585,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa</t>
@@ -1481,6 +1595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1490,6 +1605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1499,6 +1615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa1_Right</t>
@@ -1513,6 +1630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1522,6 +1640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odaoyishan</t>
@@ -1533,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1542,6 +1662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2;1.7;2.3;2.5</t>
@@ -1559,6 +1680,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2</t>
@@ -1568,6 +1690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1577,6 +1700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2_Right</t>
@@ -1591,6 +1715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1600,6 +1725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odongquan</t>
@@ -1614,6 +1740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Left|</t>
@@ -1623,6 +1750,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Right</t>
@@ -1637,6 +1765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>y</t>
@@ -1646,6 +1775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>eluoxinghejian</t>
@@ -1657,6 +1787,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Right|</t>
@@ -1666,6 +1797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Left</t>
@@ -1677,6 +1809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Left|</t>
@@ -1686,6 +1819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Right</t>
@@ -1766,6 +1900,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cike_attack_2</t>
@@ -1777,6 +1912,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1786,6 +1922,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5</t>
@@ -1809,6 +1946,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Left</t>
@@ -1818,6 +1956,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -1827,6 +1966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Right</t>
@@ -1844,6 +1984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.1</t>
@@ -1853,6 +1994,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.7;1.8</t>
@@ -1867,6 +2009,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_</t>
@@ -1876,6 +2019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left|</t>
@@ -1885,6 +2029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_Right</t>
@@ -1908,6 +2053,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1917,6 +2063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inlonggong</t>
@@ -1937,6 +2084,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rulaishenzhang</t>
@@ -1946,6 +2094,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_fangzhang</t>
@@ -1957,6 +2106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_Muzzle_</t>
@@ -1966,6 +2116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -1975,6 +2126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_xkfs|RuLaiShenZhang_Muzzle_Right_xkfs</t>
@@ -1989,6 +2141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -1998,6 +2151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hanzhanggong</t>
@@ -2012,6 +2166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Bullet_</t>
@@ -2021,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2030,6 +2186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Bullet_Right</t>
@@ -2041,6 +2198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Hit_</t>
@@ -2050,6 +2208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2059,6 +2218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Hit_Right</t>
@@ -2076,6 +2236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Left|</t>
@@ -2085,6 +2246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Right</t>
@@ -2096,6 +2258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Left|</t>
@@ -2105,6 +2268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Right</t>
@@ -2122,6 +2286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Left|</t>
@@ -2131,6 +2296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Right</t>
@@ -2148,6 +2314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Left|</t>
@@ -2157,6 +2324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Right</t>
@@ -2180,6 +2348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JinGangBuHuaiShen_Hit_Left|</t>
@@ -2189,6 +2358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JinGangBuHuaiShen_Hit_Right</t>
@@ -2221,6 +2391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -2230,6 +2401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianhualuo</t>
@@ -2298,6 +2470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>qingliannvshenjian</t>
@@ -2307,6 +2480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_dubi</t>
@@ -2434,19 +2608,261 @@
   </si>
   <si>
     <t>attack</t>
+  </si>
+  <si>
+    <r>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.1;2;2.9</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3;0.7;1.5;2.8</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.45;0.55</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.4;2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4;0.8;1.6</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;1.5;1.8;2.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;1.1;1.6;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.6;1.2;1.8;2.4</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5;0.7;0.9;1.1;1.3</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8;1.4;2;2.1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.6;1.2;1.7;2.5</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1;1.5;1.6</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.05;1.2;1.9</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5;1.4</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2459,18 +2875,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2478,180 +2897,47 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2660,13 +2946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,194 +2962,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2886,253 +2986,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3164,62 +3022,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3504,40 +3324,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E70:E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.2211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.7788461538462" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="6.77884615384615" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5576923076923" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="71" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.5576923076923" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.6634615384615" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="15" style="2" customWidth="1"/>
     <col min="15" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="30.7788461538462" style="2" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3601,7 +3420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3633,7 +3452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -3678,8 +3497,8 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -3690,7 +3509,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="17" spans="1:9">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -3703,8 +3522,8 @@
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -3714,7 +3533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:9">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -3727,8 +3546,8 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
@@ -3738,7 +3557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:9">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -3765,7 +3584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -3792,7 +3611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -3811,7 +3630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:9">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -3824,8 +3643,8 @@
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
+      <c r="E11" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -3835,7 +3654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:9">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -3848,8 +3667,8 @@
       <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -3859,7 +3678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:9">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -3872,8 +3691,8 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="E13" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
@@ -3883,7 +3702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -3902,7 +3721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:9">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -3915,8 +3734,8 @@
       <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -3926,7 +3745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -3939,8 +3758,8 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>27</v>
@@ -3950,7 +3769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
@@ -3977,7 +3796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -3990,8 +3809,8 @@
       <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
@@ -4001,7 +3820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -4030,7 +3849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="17" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
@@ -4057,7 +3876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
@@ -4084,7 +3903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
@@ -4097,8 +3916,8 @@
       <c r="D22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4108,7 +3927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
@@ -4121,8 +3940,8 @@
       <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
@@ -4132,7 +3951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
@@ -4159,7 +3978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
@@ -4186,7 +4005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
@@ -4213,7 +4032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
@@ -4242,7 +4061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
@@ -4261,7 +4080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
@@ -4275,7 +4094,7 @@
         <v>111</v>
       </c>
       <c r="E29" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
@@ -4288,7 +4107,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
@@ -4314,7 +4133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
@@ -4327,8 +4146,8 @@
       <c r="D31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
+      <c r="E31" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4338,7 +4157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
@@ -4365,7 +4184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
@@ -4378,8 +4197,8 @@
       <c r="D33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>130</v>
@@ -4389,7 +4208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
@@ -4402,8 +4221,8 @@
       <c r="D34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>130</v>
@@ -4413,7 +4232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
@@ -4435,7 +4254,7 @@
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" ht="17" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
@@ -4460,7 +4279,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" ht="17" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
@@ -4482,7 +4301,7 @@
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" ht="17" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
@@ -4504,7 +4323,7 @@
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" ht="17" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
@@ -4518,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>130</v>
@@ -4531,7 +4350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="17" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
@@ -4558,7 +4377,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
@@ -4585,7 +4404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
@@ -4607,7 +4426,7 @@
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" ht="17" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
@@ -4629,7 +4448,7 @@
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" ht="17" spans="1:8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
@@ -4655,7 +4474,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" ht="17" spans="1:8">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
@@ -4681,7 +4500,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" ht="17" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
@@ -4708,7 +4527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" ht="17" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
@@ -4735,7 +4554,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
@@ -4757,7 +4576,7 @@
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
@@ -4778,7 +4597,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
@@ -4799,7 +4618,7 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
@@ -4820,7 +4639,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" ht="17" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
@@ -4844,7 +4663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" ht="17" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
@@ -4868,7 +4687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" ht="17" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
@@ -4892,7 +4711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" ht="17" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
@@ -4916,7 +4735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" ht="17" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
@@ -4940,7 +4759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
@@ -4961,7 +4780,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" ht="17" spans="1:7">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
@@ -4982,7 +4801,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" ht="17" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
@@ -5009,7 +4828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" ht="17" spans="1:8">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4028</v>
       </c>
@@ -5033,7 +4852,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" ht="17" spans="1:8">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4029</v>
       </c>
@@ -5056,7 +4875,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" ht="17" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5001</v>
       </c>
@@ -5083,7 +4902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" ht="17" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>5002</v>
       </c>
@@ -5109,7 +4928,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" ht="17" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>5003</v>
       </c>
@@ -5136,7 +4955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" ht="17" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>5004</v>
       </c>
@@ -5163,7 +4982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" ht="17" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>5005</v>
       </c>
@@ -5190,7 +5009,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" ht="17" spans="1:8">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>5006</v>
       </c>
@@ -5214,7 +5033,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" ht="17" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>5007</v>
       </c>
@@ -5228,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>224</v>
@@ -5241,7 +5060,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" ht="17" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>5008</v>
       </c>
@@ -5268,7 +5087,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5009</v>
       </c>
@@ -5277,6 +5096,9 @@
       </c>
       <c r="C70" s="4" t="s">
         <v>253</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
@@ -5284,7 +5106,7 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
@@ -5294,13 +5116,16 @@
       <c r="C71" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
@@ -5316,7 +5141,7 @@
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" ht="17" spans="1:7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>5012</v>
       </c>
@@ -5332,7 +5157,7 @@
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>5013</v>
       </c>
@@ -5348,7 +5173,7 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>5014</v>
       </c>
@@ -5364,7 +5189,7 @@
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5015</v>
       </c>
@@ -5380,7 +5205,7 @@
       </c>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>5016</v>
       </c>
@@ -5396,7 +5221,7 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5017</v>
       </c>
@@ -5412,7 +5237,7 @@
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>5018</v>
       </c>
@@ -5428,7 +5253,7 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>5019</v>
       </c>
@@ -5444,7 +5269,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>5020</v>
       </c>
@@ -5460,7 +5285,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5021</v>
       </c>
@@ -5476,7 +5301,7 @@
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" ht="17" spans="1:7">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
@@ -5492,7 +5317,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
@@ -5510,7 +5335,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
@@ -5526,7 +5351,7 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>5025</v>
       </c>
@@ -5542,7 +5367,7 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
@@ -5558,7 +5383,7 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
@@ -5574,7 +5399,7 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
@@ -5590,7 +5415,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5029</v>
       </c>
@@ -5606,7 +5431,7 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5030</v>
       </c>
@@ -5622,7 +5447,7 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>5031</v>
       </c>
@@ -5638,7 +5463,7 @@
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5032</v>
       </c>
@@ -5654,7 +5479,7 @@
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5033</v>
       </c>
@@ -5670,7 +5495,7 @@
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5034</v>
       </c>
@@ -5686,7 +5511,7 @@
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5035</v>
       </c>
@@ -5702,7 +5527,7 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
@@ -5718,7 +5543,7 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
@@ -5734,7 +5559,7 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
@@ -5750,7 +5575,7 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
@@ -5766,7 +5591,7 @@
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
@@ -5782,7 +5607,7 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
@@ -5798,7 +5623,7 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
@@ -5814,7 +5639,7 @@
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" ht="17" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>9901</v>
       </c>
@@ -5838,11 +5663,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -3513,9 +3513,9 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" ht="17" spans="1:9">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
@@ -4834,14 +4834,17 @@
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="1:9">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
@@ -4855,14 +4858,17 @@
         <v>0.8</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="1:9">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
@@ -4876,14 +4882,17 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" ht="17" spans="1:9">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
@@ -4897,14 +4906,17 @@
         <v>0.5</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" ht="17" spans="1:9">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
@@ -4918,12 +4930,15 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1013650-FF0D-4298-92E4-2300F81D0D5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF10BF-84A7-4694-B5A9-9AB482E33E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -2331,9 +2331,6 @@
     </r>
   </si>
   <si>
-    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
-  </si>
-  <si>
     <t>金刚不坏身</t>
   </si>
   <si>
@@ -2854,6 +2851,52 @@
         <scheme val="minor"/>
       </rPr>
       <t>;2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;1.7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iuHuoLianJi</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiuHuoLianJi_Hit_Left|JiuHuoLianJi_Hit_Left</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HuJi</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3333,8 +3376,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E70:E74"/>
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3498,7 +3541,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -3523,7 +3566,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -3547,7 +3590,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
@@ -3644,7 +3687,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -3668,7 +3711,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -3692,7 +3735,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
@@ -3735,7 +3778,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -3759,7 +3802,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>27</v>
@@ -3810,7 +3853,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
@@ -3917,7 +3960,7 @@
         <v>85</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -3941,7 +3984,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
@@ -4147,7 +4190,7 @@
         <v>121</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4198,7 +4241,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>130</v>
@@ -4222,7 +4265,7 @@
         <v>133</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>130</v>
@@ -5057,7 +5100,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5065,10 +5108,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5081,10 +5124,10 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5092,48 +5135,61 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D70" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="D71" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F71" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
@@ -5146,10 +5202,10 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
@@ -5162,10 +5218,10 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
@@ -5178,10 +5234,10 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
@@ -5194,10 +5250,10 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
@@ -5210,10 +5266,10 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
@@ -5226,10 +5282,10 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
@@ -5242,10 +5298,10 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
@@ -5258,10 +5314,10 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
@@ -5274,10 +5330,10 @@
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
@@ -5290,10 +5346,10 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
@@ -5306,10 +5362,10 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
@@ -5325,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
@@ -5340,10 +5396,10 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
@@ -5356,10 +5412,10 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
@@ -5372,10 +5428,10 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
@@ -5388,10 +5444,10 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
@@ -5404,10 +5460,10 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
@@ -5420,10 +5476,10 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
@@ -5436,10 +5492,10 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
@@ -5452,10 +5508,10 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
@@ -5468,10 +5524,10 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
@@ -5484,10 +5540,10 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
@@ -5500,10 +5556,10 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
@@ -5516,10 +5572,10 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
@@ -5532,10 +5588,10 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
@@ -5548,10 +5604,10 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
@@ -5564,10 +5620,10 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
@@ -5580,10 +5636,10 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
@@ -5596,10 +5652,10 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
@@ -5612,10 +5668,10 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
@@ -5628,10 +5684,10 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
@@ -5644,10 +5700,10 @@
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ACFB05-1818-4946-96DC-6E5489C07714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -747,7 +753,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.69;2.65</t>
     </r>
@@ -2434,19 +2440,242 @@
   </si>
   <si>
     <t>attack</t>
+  </si>
+  <si>
+    <r>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.1;2;2.9</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.3;0.7;1.5;2.8</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.45;0.55</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.4;2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4;0.8;1.6</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;1.5;1.8;2.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;1.1;1.6;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.6;1.2;1.8;2.4</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5;0.7;0.9;1.1;1.3</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8;1.4;2;2.1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.6;1.2;1.7;2.5</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1;1.5;1.6</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.05;1.2;1.9</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5;1.4</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2488,157 +2717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2648,10 +2726,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2660,13 +2752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,194 +2768,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2886,253 +2792,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3164,62 +2828,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3504,40 +3130,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.2211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.7788461538462" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="6.77884615384615" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5576923076923" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="71" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.5576923076923" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.6634615384615" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="15" style="2" customWidth="1"/>
     <col min="15" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="30.7788461538462" style="2" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3601,7 +3226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3633,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -3678,8 +3303,8 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -3690,7 +3315,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="17" spans="1:9">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -3703,8 +3328,8 @@
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -3714,7 +3339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:9">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -3727,8 +3352,8 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
@@ -3738,7 +3363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:9">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -3765,7 +3390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -3792,7 +3417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -3811,7 +3436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:9">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -3824,8 +3449,8 @@
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
+      <c r="E11" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -3835,7 +3460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:9">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -3848,8 +3473,8 @@
       <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -3859,7 +3484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:9">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -3872,8 +3497,8 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="E13" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
@@ -3883,7 +3508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -3902,7 +3527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:9">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -3915,8 +3540,8 @@
       <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -3926,7 +3551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -3939,8 +3564,8 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>27</v>
@@ -3950,7 +3575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
@@ -3977,7 +3602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -3990,8 +3615,8 @@
       <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
@@ -4001,7 +3626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -4030,7 +3655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="17" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
@@ -4057,7 +3682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
@@ -4084,7 +3709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
@@ -4097,8 +3722,8 @@
       <c r="D22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4108,7 +3733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
@@ -4121,8 +3746,8 @@
       <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
@@ -4132,7 +3757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
@@ -4159,7 +3784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
@@ -4186,7 +3811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
@@ -4213,7 +3838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
@@ -4242,7 +3867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
@@ -4261,7 +3886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
@@ -4275,7 +3900,7 @@
         <v>111</v>
       </c>
       <c r="E29" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
@@ -4288,7 +3913,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
@@ -4314,7 +3939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
@@ -4327,8 +3952,8 @@
       <c r="D31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
+      <c r="E31" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4338,7 +3963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
@@ -4365,7 +3990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
@@ -4378,8 +4003,8 @@
       <c r="D33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>130</v>
@@ -4389,7 +4014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
@@ -4402,8 +4027,8 @@
       <c r="D34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>130</v>
@@ -4413,7 +4038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
@@ -4435,7 +4060,7 @@
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" ht="17" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
@@ -4460,7 +4085,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" ht="17" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
@@ -4482,7 +4107,7 @@
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" ht="17" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
@@ -4504,7 +4129,7 @@
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" ht="17" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
@@ -4518,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>130</v>
@@ -4531,7 +4156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="17" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
@@ -4558,7 +4183,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
@@ -4585,7 +4210,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
@@ -4607,7 +4232,7 @@
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" ht="17" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
@@ -4629,7 +4254,7 @@
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" ht="17" spans="1:8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
@@ -4655,7 +4280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" ht="17" spans="1:8">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
@@ -4681,7 +4306,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" ht="17" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
@@ -4708,7 +4333,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" ht="17" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
@@ -4735,7 +4360,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
@@ -4757,7 +4382,7 @@
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
@@ -4778,7 +4403,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
@@ -4799,7 +4424,7 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
@@ -4820,7 +4445,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" ht="17" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
@@ -4844,7 +4469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" ht="17" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
@@ -4868,7 +4493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" ht="17" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
@@ -4892,7 +4517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" ht="17" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
@@ -4916,7 +4541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" ht="17" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
@@ -4940,7 +4565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
@@ -4961,7 +4586,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" ht="17" spans="1:7">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
@@ -4982,7 +4607,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" ht="17" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
@@ -5009,7 +4634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" ht="17" spans="1:8">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4028</v>
       </c>
@@ -5033,7 +4658,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" ht="17" spans="1:8">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4029</v>
       </c>
@@ -5056,7 +4681,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" ht="17" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5001</v>
       </c>
@@ -5083,7 +4708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" ht="17" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>5002</v>
       </c>
@@ -5109,7 +4734,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" ht="17" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>5003</v>
       </c>
@@ -5136,7 +4761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" ht="17" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>5004</v>
       </c>
@@ -5163,7 +4788,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" ht="17" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>5005</v>
       </c>
@@ -5190,7 +4815,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" ht="17" spans="1:8">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>5006</v>
       </c>
@@ -5214,7 +4839,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" ht="17" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>5007</v>
       </c>
@@ -5228,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>224</v>
@@ -5241,7 +4866,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" ht="17" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>5008</v>
       </c>
@@ -5268,7 +4893,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5009</v>
       </c>
@@ -5284,7 +4909,7 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
@@ -5300,7 +4925,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
@@ -5316,7 +4941,7 @@
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" ht="17" spans="1:7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>5012</v>
       </c>
@@ -5332,7 +4957,7 @@
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>5013</v>
       </c>
@@ -5348,7 +4973,7 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>5014</v>
       </c>
@@ -5364,7 +4989,7 @@
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5015</v>
       </c>
@@ -5380,7 +5005,7 @@
       </c>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>5016</v>
       </c>
@@ -5396,7 +5021,7 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5017</v>
       </c>
@@ -5412,7 +5037,7 @@
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>5018</v>
       </c>
@@ -5428,7 +5053,7 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>5019</v>
       </c>
@@ -5444,7 +5069,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>5020</v>
       </c>
@@ -5460,7 +5085,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5021</v>
       </c>
@@ -5476,7 +5101,7 @@
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" ht="17" spans="1:7">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
@@ -5492,7 +5117,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
@@ -5510,7 +5135,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
@@ -5526,7 +5151,7 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>5025</v>
       </c>
@@ -5542,7 +5167,7 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
@@ -5558,7 +5183,7 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
@@ -5574,7 +5199,7 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
@@ -5590,7 +5215,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5029</v>
       </c>
@@ -5606,7 +5231,7 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5030</v>
       </c>
@@ -5622,7 +5247,7 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>5031</v>
       </c>
@@ -5638,7 +5263,7 @@
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5032</v>
       </c>
@@ -5654,7 +5279,7 @@
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5033</v>
       </c>
@@ -5670,7 +5295,7 @@
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5034</v>
       </c>
@@ -5686,7 +5311,7 @@
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5035</v>
       </c>
@@ -5702,7 +5327,7 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
@@ -5718,7 +5343,7 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
@@ -5734,7 +5359,7 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
@@ -5750,7 +5375,7 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
@@ -5766,7 +5391,7 @@
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
@@ -5782,7 +5407,7 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
@@ -5798,7 +5423,7 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
@@ -5814,7 +5439,7 @@
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" ht="17" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>9901</v>
       </c>
@@ -5838,11 +5463,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF10BF-84A7-4694-B5A9-9AB482E33E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43AD1D1-3A8E-401E-BE75-9DE0D5EB3A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -2337,31 +2337,6 @@
     <t>jingangbuhuaishen</t>
   </si>
   <si>
-    <t>JinGangBuHuaiShen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JinGangBuHuaiShen_Hit_Left|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JinGangBuHuaiShen_Hit_Right</t>
-    </r>
-  </si>
-  <si>
     <t>醉葫击</t>
   </si>
   <si>
@@ -2855,49 +2830,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0.3;1.7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iuHuoLianJi</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiuHuoLianJi_Hit_Left|JiuHuoLianJi_Hit_Left</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Zui</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HuJi</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3376,8 +3309,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3541,7 +3474,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -3566,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -3590,7 +3523,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
@@ -3687,7 +3620,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -3711,7 +3644,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -3735,7 +3668,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
@@ -3778,7 +3711,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -3802,7 +3735,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>27</v>
@@ -3853,7 +3786,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
@@ -3960,7 +3893,7 @@
         <v>85</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -3984,7 +3917,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
@@ -4190,7 +4123,7 @@
         <v>121</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4241,7 +4174,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>130</v>
@@ -4265,7 +4198,7 @@
         <v>133</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>130</v>
@@ -5100,7 +5033,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5123,73 +5056,58 @@
         <v>224</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D71" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E71" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
@@ -5202,10 +5120,10 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
@@ -5218,10 +5136,10 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
@@ -5234,10 +5152,10 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
@@ -5250,10 +5168,10 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
@@ -5266,10 +5184,10 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
@@ -5282,10 +5200,10 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
@@ -5298,10 +5216,10 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
@@ -5314,10 +5232,10 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
@@ -5330,10 +5248,10 @@
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
@@ -5346,10 +5264,10 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
@@ -5362,10 +5280,10 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
@@ -5381,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
@@ -5396,10 +5314,10 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
@@ -5412,10 +5330,10 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
@@ -5428,10 +5346,10 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
@@ -5444,10 +5362,10 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
@@ -5460,10 +5378,10 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
@@ -5476,10 +5394,10 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
@@ -5492,10 +5410,10 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
@@ -5508,10 +5426,10 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
@@ -5524,10 +5442,10 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
@@ -5540,10 +5458,10 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
@@ -5556,10 +5474,10 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
@@ -5572,10 +5490,10 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
@@ -5588,10 +5506,10 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
@@ -5604,10 +5522,10 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
@@ -5620,10 +5538,10 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
@@ -5636,10 +5554,10 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
@@ -5652,10 +5570,10 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
@@ -5668,10 +5586,10 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
@@ -5684,10 +5602,10 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
@@ -5700,10 +5618,10 @@
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43AD1D1-3A8E-401E-BE75-9DE0D5EB3A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD974D2-DFA7-4536-8E86-9956AA7E9DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -2831,6 +2831,61 @@
   </si>
   <si>
     <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8;0.4;0.4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4;0.9;0.9</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8;0.6;0.6;1.2</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3309,8 +3364,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70:I71"/>
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5141,6 +5196,9 @@
       <c r="C74" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="D74" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
         <v>224</v>
@@ -5157,6 +5215,9 @@
       <c r="C75" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="D75" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
         <v>224</v>
@@ -5173,6 +5234,9 @@
       <c r="C76" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="D76" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
         <v>224</v>
@@ -5188,6 +5252,9 @@
       </c>
       <c r="C77" s="2" t="s">
         <v>264</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD974D2-DFA7-4536-8E86-9956AA7E9DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
   <si>
     <t>ID</t>
   </si>
@@ -85,7 +79,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Atk</t>
@@ -96,7 +89,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Delay</t>
@@ -112,7 +104,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Foot</t>
@@ -123,7 +114,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>SE</t>
@@ -150,7 +140,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5;0.5</t>
@@ -160,7 +149,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;0.</t>
@@ -170,7 +158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -180,7 +167,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -190,13 +176,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1.1;2;2.9</t>
+    </r>
+  </si>
+  <si>
     <t>己方</t>
   </si>
   <si>
@@ -205,7 +210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Left|</t>
@@ -215,7 +219,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Right</t>
@@ -231,6 +234,26 @@
     <t>0.6;1;0.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.3;0.7;1.5;2.8</t>
+    </r>
+  </si>
+  <si>
     <t>风神腿</t>
   </si>
   <si>
@@ -240,6 +263,26 @@
     <t>0.4;0.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.45;0.55</t>
+    </r>
+  </si>
+  <si>
     <t>雁回剑法</t>
   </si>
   <si>
@@ -266,7 +309,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Left|</t>
@@ -276,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Right</t>
@@ -298,6 +339,35 @@
     <t>2.6;2;2.2;2.2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;1.4;2</t>
+    </r>
+  </si>
+  <si>
     <t>莲花掌</t>
   </si>
   <si>
@@ -307,6 +377,26 @@
     <t>0.5;0.4;0.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.4;0.8;1.6</t>
+    </r>
+  </si>
+  <si>
     <t>葵花点穴手</t>
   </si>
   <si>
@@ -316,6 +406,9 @@
     <t>0.5;0.5;0.5;1</t>
   </si>
   <si>
+    <t>0.5;1.5;1.8;2.2</t>
+  </si>
+  <si>
     <t>扫叶腿</t>
   </si>
   <si>
@@ -333,7 +426,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.4;0.75;</t>
@@ -343,7 +435,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -353,13 +444,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.7;1.5</t>
     </r>
   </si>
   <si>
+    <t>0.4;1.1;1.6;3</t>
+  </si>
+  <si>
     <t>碎玉拳</t>
   </si>
   <si>
@@ -369,6 +462,26 @@
     <t>0.5;0.4;0.5;0.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.6;1.2;1.8;2.4</t>
+    </r>
+  </si>
+  <si>
     <t>无影脚</t>
   </si>
   <si>
@@ -383,7 +496,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>WuYingJiao_Hit</t>
@@ -393,7 +505,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|WuYingJiao_Hit_Right</t>
@@ -411,7 +522,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;</t>
@@ -421,7 +531,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -431,7 +540,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -441,7 +549,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -451,7 +558,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -461,7 +567,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -471,7 +576,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -481,13 +585,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5;0.7;0.9;1.1;1.3</t>
+    </r>
+  </si>
+  <si>
     <t>乱披风剑法</t>
   </si>
   <si>
@@ -499,7 +622,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -509,7 +631,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5;1.5;1.5;1.5</t>
@@ -519,7 +640,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -529,7 +649,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5</t>
@@ -559,7 +678,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Left|</t>
@@ -569,7 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Right</t>
@@ -587,7 +704,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Muzzle_Left</t>
@@ -597,7 +713,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YuJianShu_Muzzle_Right</t>
@@ -609,7 +724,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Left|</t>
@@ -619,7 +733,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Right</t>
@@ -635,12 +748,52 @@
     <t>0.4;0.6;0.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.8;1.4;2;2.1</t>
+    </r>
+  </si>
+  <si>
     <t>开碑手</t>
   </si>
   <si>
     <t>kaibeishou</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.6;1.2;1.7;2.5</t>
+    </r>
+  </si>
+  <si>
     <t>如来神掌</t>
   </si>
   <si>
@@ -655,7 +808,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Left</t>
@@ -665,7 +817,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -675,7 +826,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Right</t>
@@ -696,7 +846,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XiangLongShiBaZhang_Hit_Left|</t>
@@ -706,7 +855,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XiangLongShiBaZhang_Hit_Right</t>
@@ -730,7 +878,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Left|</t>
@@ -740,7 +887,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Right</t>
@@ -758,7 +904,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -768,7 +913,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;0</t>
@@ -780,7 +924,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -790,7 +933,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -800,7 +942,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1.69;2.65</t>
     </r>
@@ -832,7 +974,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BaHuangLiuHe</t>
@@ -842,7 +983,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>E</t>
@@ -863,7 +1003,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;2;2</t>
@@ -873,7 +1012,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -888,7 +1026,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Left|</t>
@@ -898,7 +1035,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Right</t>
@@ -916,7 +1052,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -926,13 +1061,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;0.5</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1;1.5;1.6</t>
+    </r>
+  </si>
+  <si>
     <t>易筋经</t>
   </si>
   <si>
@@ -944,7 +1098,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -954,7 +1107,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;1;2</t>
@@ -966,7 +1118,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Pre_</t>
@@ -976,7 +1127,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -986,7 +1136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YiJinJing_Pre_Right</t>
@@ -998,7 +1147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Left|</t>
@@ -1008,7 +1156,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Right</t>
@@ -1023,7 +1170,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -1033,7 +1179,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>agoubangfa</t>
@@ -1045,7 +1190,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.1;</t>
@@ -1055,7 +1199,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1065,13 +1208,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.4</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.05;1.2;1.9</t>
+    </r>
+  </si>
+  <si>
     <t>敌方</t>
   </si>
   <si>
@@ -1083,7 +1245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -1093,7 +1254,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>iaoyugunfa</t>
@@ -1105,7 +1265,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.1;</t>
@@ -1115,7 +1274,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1125,13 +1283,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5;1.4</t>
+    </r>
+  </si>
+  <si>
     <t>罗汉伏魔拳</t>
   </si>
   <si>
@@ -1140,7 +1317,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -1150,7 +1326,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uohanfumoquan</t>
@@ -1168,7 +1343,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1178,7 +1352,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianshouzhang</t>
@@ -1190,7 +1363,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1;1</t>
@@ -1200,33 +1372,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;1;1;1;1</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>QianShouZhang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_Hit_Left|QianShouZhang_Hit_Right</t>
-    </r>
+    <t>QianShouZhang_Hit_Right|QianShouZhang_Hit_Left</t>
   </si>
   <si>
     <t>太极剑法</t>
@@ -1237,7 +1389,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -1247,7 +1398,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aijijianfa</t>
@@ -1259,7 +1409,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8</t>
@@ -1269,7 +1418,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -1279,7 +1427,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1297,7 +1444,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8;0.6;0.6</t>
@@ -1307,7 +1453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -1317,7 +1462,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1</t>
@@ -1335,7 +1479,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Left|</t>
@@ -1345,7 +1488,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Right</t>
@@ -1363,7 +1505,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1373,7 +1514,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aimangbian</t>
@@ -1394,7 +1534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>h</t>
@@ -1404,7 +1543,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uashanjian</t>
@@ -1416,7 +1554,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1426,7 +1563,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.2;1;-1;4</t>
@@ -1441,7 +1577,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Left|</t>
@@ -1451,7 +1586,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Right</t>
@@ -1472,7 +1606,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.5</t>
@@ -1482,7 +1615,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -1497,7 +1629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1507,7 +1638,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianzhuwandushou</t>
@@ -1525,7 +1655,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1535,7 +1664,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odao</t>
@@ -1547,7 +1675,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;2;</t>
@@ -1557,7 +1684,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1567,7 +1693,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1;2.6</t>
@@ -1585,7 +1710,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa</t>
@@ -1595,7 +1719,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1605,7 +1728,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1615,7 +1737,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa1_Right</t>
@@ -1630,7 +1751,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1640,7 +1760,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odaoyishan</t>
@@ -1652,7 +1771,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1662,7 +1780,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2;1.7;2.3;2.5</t>
@@ -1680,7 +1797,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2</t>
@@ -1690,7 +1806,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1700,7 +1815,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2_Right</t>
@@ -1715,7 +1829,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1725,7 +1838,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odongquan</t>
@@ -1740,7 +1852,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Left|</t>
@@ -1750,7 +1861,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Right</t>
@@ -1765,7 +1875,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>y</t>
@@ -1775,7 +1884,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>eluoxinghejian</t>
@@ -1787,7 +1895,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Right|</t>
@@ -1797,7 +1904,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Left</t>
@@ -1809,7 +1915,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Left|</t>
@@ -1819,7 +1924,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Right</t>
@@ -1900,7 +2004,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cike_attack_2</t>
@@ -1912,7 +2015,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1922,7 +2024,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5</t>
@@ -1946,7 +2047,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Left</t>
@@ -1956,7 +2056,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -1966,7 +2065,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Right</t>
@@ -1984,7 +2082,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.1</t>
@@ -1994,7 +2091,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.7;1.8</t>
@@ -2009,7 +2105,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_</t>
@@ -2019,7 +2114,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left|</t>
@@ -2029,7 +2123,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_Right</t>
@@ -2053,7 +2146,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -2063,7 +2155,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inlonggong</t>
@@ -2084,7 +2175,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rulaishenzhang</t>
@@ -2094,7 +2184,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_fangzhang</t>
@@ -2106,7 +2195,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_Muzzle_</t>
@@ -2116,7 +2204,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2126,7 +2213,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_xkfs|RuLaiShenZhang_Muzzle_Right_xkfs</t>
@@ -2141,7 +2227,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -2151,7 +2236,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hanzhanggong</t>
@@ -2166,7 +2250,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Bullet_</t>
@@ -2176,7 +2259,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2186,7 +2268,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Bullet_Right</t>
@@ -2198,7 +2279,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Hit_</t>
@@ -2208,7 +2288,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2218,7 +2297,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Hit_Right</t>
@@ -2236,7 +2314,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Left|</t>
@@ -2246,7 +2323,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Right</t>
@@ -2258,7 +2334,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Left|</t>
@@ -2268,7 +2343,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Right</t>
@@ -2286,7 +2360,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Left|</t>
@@ -2296,7 +2369,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Right</t>
@@ -2314,7 +2386,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Left|</t>
@@ -2324,13 +2395,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Right</t>
     </r>
   </si>
   <si>
+    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
+  </si>
+  <si>
     <t>金刚不坏身</t>
   </si>
   <si>
@@ -2343,6 +2416,26 @@
     <t>zuihuji</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
     <t>酒火连击</t>
   </si>
   <si>
@@ -2363,7 +2456,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -2373,7 +2465,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianhualuo</t>
@@ -2386,24 +2477,87 @@
     <t>taijijianfa_zhangzhenren</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
     <t>太极拳_张真人</t>
   </si>
   <si>
     <t>taijiquan_zhangzhenren</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.8;0.6;0.6;1.2</t>
+    </r>
+  </si>
+  <si>
     <t>太极剑法_脏道人</t>
   </si>
   <si>
     <t>taijijianfa_zangdaoren</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.4;0.9;0.9</t>
+    </r>
+  </si>
+  <si>
     <t>太极拳_脏道人</t>
   </si>
   <si>
     <t>taijiquan_zangdaoren</t>
   </si>
   <si>
+    <t>0.8;0.4;0.4</t>
+  </si>
+  <si>
     <t>言灵</t>
   </si>
   <si>
@@ -2442,7 +2596,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>qingliannvshenjian</t>
@@ -2452,7 +2605,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_dubi</t>
@@ -2580,320 +2732,19 @@
   </si>
   <si>
     <t>attack</t>
-  </si>
-  <si>
-    <r>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1.1;2;2.9</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.3;0.7;1.5;2.8</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.45;0.55</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.5;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;1.4;2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.4;0.8;1.6</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5;1.5;1.8;2.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4;1.1;1.6;3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.6;1.2;1.8;2.4</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5;0.7;0.9;1.1;1.3</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.8;1.4;2;2.1</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.6;1.2;1.7;2.5</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.1;1.5;1.6</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.05;1.2;1.9</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5;1.4</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8;0.4;0.4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.4;0.9;0.9</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.8;0.6;0.6;1.2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2906,21 +2757,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2928,34 +2776,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2963,12 +2797,159 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2977,13 +2958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641044"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,8 +2974,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3017,11 +3184,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3050,27 +3459,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3355,39 +3805,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.2211538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.1057692307692" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.7788461538462" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5576923076923" customWidth="1"/>
+    <col min="6" max="6" width="6.77884615384615" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.5576923076923" style="2" customWidth="1"/>
     <col min="8" max="8" width="71" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.5576923076923" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6634615384615" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="15" style="2" customWidth="1"/>
     <col min="15" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="30.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="30.7788461538462" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3451,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3483,7 +3934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3515,7 +3966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" ht="17" spans="1:14">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -3528,102 +3979,102 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>318</v>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" ht="17" spans="1:9">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>319</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:9">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>320</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:9">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="17" spans="1:9">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3632,290 +4083,290 @@
         <v>0.4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:9">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:9">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>321</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:9">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>322</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:9">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>323</v>
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:9">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:9">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>324</v>
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:9">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>325</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:9">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2">
         <v>0.35</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:9">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>326</v>
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:9">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:9">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:9">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -3924,73 +4375,73 @@
         <v>0.7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:9">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>327</v>
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:9">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>328</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:9">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -3999,25 +4450,25 @@
         <v>0.8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:9">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4026,370 +4477,369 @@
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:9">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:9">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:9">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:9">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:9">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:9">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>329</v>
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:9">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:9">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>330</v>
+        <v>141</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:9">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>331</v>
+        <v>146</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:9">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" ht="17" spans="1:9">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:9">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" ht="17" spans="1:9">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" ht="17" spans="1:9">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" ht="17" spans="1:9">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4398,148 +4848,148 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:9">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:9">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" ht="17" spans="1:9">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" ht="17" spans="1:8">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" ht="17" spans="1:8">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" ht="17" spans="1:9">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4548,25 +4998,25 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" ht="17" spans="1:9">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4575,25 +5025,25 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4602,20 +5052,20 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4624,19 +5074,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4645,40 +5095,40 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" ht="17" spans="1:9">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4687,22 +5137,22 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="1:9">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4711,22 +5161,22 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="1:9">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4735,22 +5185,22 @@
         <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" ht="17" spans="1:9">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4759,22 +5209,22 @@
         <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" ht="17" spans="1:9">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4783,64 +5233,64 @@
         <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" ht="17" spans="1:7">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" ht="17" spans="1:9">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4849,25 +5299,25 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" ht="17" spans="1:8">
       <c r="A60" s="2">
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4876,45 +5326,45 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" ht="17" spans="1:8">
       <c r="A61" s="2">
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" ht="17" spans="1:9">
       <c r="A62" s="2">
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4923,25 +5373,25 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" ht="17" spans="1:9">
       <c r="A63" s="2">
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -4950,24 +5400,24 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" ht="17" spans="1:9">
       <c r="A64" s="2">
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -4976,52 +5426,52 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" ht="17" spans="1:9">
       <c r="A65" s="2">
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" ht="17" spans="1:9">
       <c r="A66" s="2">
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -5030,25 +5480,25 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" ht="17" spans="1:8">
       <c r="A67" s="2">
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5057,49 +5507,49 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" ht="17" spans="1:9">
       <c r="A68" s="2">
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5108,587 +5558,587 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" ht="17" spans="1:8">
       <c r="A70" s="2">
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D71" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" ht="17" spans="1:7">
       <c r="A73" s="2">
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" ht="17" spans="1:7">
       <c r="A74" s="2">
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" ht="17" spans="1:7">
       <c r="A75" s="2">
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" ht="17" spans="1:7">
       <c r="A76" s="2">
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" ht="17" spans="1:7">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" ht="17" spans="1:9">
       <c r="A104" s="2">
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>
@@ -5697,18 +6147,18 @@
         <v>0.4</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+  <sortState ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9AD46-858A-4FAF-901B-7A93DBF4B183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="345">
   <si>
     <t>ID</t>
   </si>
@@ -942,7 +948,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.69;2.65</t>
     </r>
@@ -2329,6 +2335,461 @@
     </r>
   </si>
   <si>
+    <t>捞月铲法</t>
+  </si>
+  <si>
+    <t>laoyuechanfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LaoYueChanFa_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LaoYueChanFa_Right</t>
+    </r>
+  </si>
+  <si>
+    <t>易筋经_扫地僧</t>
+  </si>
+  <si>
+    <t>yijinjing_saodiseng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YiJinJing_SaoDiSeng_Pre_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YiJinJing_SaoDiSeng_Pre_Right</t>
+    </r>
+  </si>
+  <si>
+    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
+  </si>
+  <si>
+    <t>金刚不坏身</t>
+  </si>
+  <si>
+    <t>jingangbuhuaishen</t>
+  </si>
+  <si>
+    <t>醉葫击</t>
+  </si>
+  <si>
+    <t>zuihuji</t>
+  </si>
+  <si>
+    <t>酒火连击</t>
+  </si>
+  <si>
+    <t>jiuhuolianji</t>
+  </si>
+  <si>
+    <t>打狗棒法_洪七</t>
+  </si>
+  <si>
+    <t>dagoubangfa_hongqi</t>
+  </si>
+  <si>
+    <t>莲花落</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ianhualuo</t>
+    </r>
+  </si>
+  <si>
+    <t>太极剑法_张真人</t>
+  </si>
+  <si>
+    <t>taijijianfa_zhangzhenren</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+  </si>
+  <si>
+    <t>太极拳_张真人</t>
+  </si>
+  <si>
+    <t>taijiquan_zhangzhenren</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.8;0.6;0.6;1.2</t>
+    </r>
+  </si>
+  <si>
+    <t>太极剑法_脏道人</t>
+  </si>
+  <si>
+    <t>taijijianfa_zangdaoren</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.4;0.9;0.9</t>
+    </r>
+  </si>
+  <si>
+    <t>太极拳_脏道人</t>
+  </si>
+  <si>
+    <t>taijiquan_zangdaoren</t>
+  </si>
+  <si>
+    <t>0.8;0.4;0.4</t>
+  </si>
+  <si>
+    <t>言灵</t>
+  </si>
+  <si>
+    <t>yanling</t>
+  </si>
+  <si>
+    <t>乾坤一掷</t>
+  </si>
+  <si>
+    <t>qiankunyizhi</t>
+  </si>
+  <si>
+    <t>灭绝1</t>
+  </si>
+  <si>
+    <t>miejue1</t>
+  </si>
+  <si>
+    <t>灭绝2</t>
+  </si>
+  <si>
+    <t>miejue2</t>
+  </si>
+  <si>
+    <t>袖里乾坤</t>
+  </si>
+  <si>
+    <t>xiuliqiankun</t>
+  </si>
+  <si>
+    <t>青莲女神剑_独臂</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qingliannvshenjian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_dubi</t>
+    </r>
+  </si>
+  <si>
+    <t>yujianshu_qiubujun</t>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+  </si>
+  <si>
+    <t>wanjianguizong</t>
+  </si>
+  <si>
+    <t>紫霞掌</t>
+  </si>
+  <si>
+    <t>zixiazhang</t>
+  </si>
+  <si>
+    <t>紫气东来</t>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+  </si>
+  <si>
+    <t>地藏引</t>
+  </si>
+  <si>
+    <t>dizangyin</t>
+  </si>
+  <si>
+    <t>阎罗帖</t>
+  </si>
+  <si>
+    <t>yanluotie</t>
+  </si>
+  <si>
+    <t>千蛛万毒手_红药</t>
+  </si>
+  <si>
+    <t>qianzhuwandushou_hongyao</t>
+  </si>
+  <si>
+    <t>天罗朱网</t>
+  </si>
+  <si>
+    <t>tianluozhuwang</t>
+  </si>
+  <si>
+    <t>教主1</t>
+  </si>
+  <si>
+    <t>jiaozhu1</t>
+  </si>
+  <si>
+    <t>教主2</t>
+  </si>
+  <si>
+    <t>jiaozhu2</t>
+  </si>
+  <si>
+    <t>金乌刀</t>
+  </si>
+  <si>
+    <t>jinwudao</t>
+  </si>
+  <si>
+    <t>火拳</t>
+  </si>
+  <si>
+    <t>huoquan</t>
+  </si>
+  <si>
+    <t>剑舞</t>
+  </si>
+  <si>
+    <t>jianwu</t>
+  </si>
+  <si>
+    <t>幻影剑舞</t>
+  </si>
+  <si>
+    <t>huanyingjianwu</t>
+  </si>
+  <si>
+    <t>神光普照</t>
+  </si>
+  <si>
+    <t>shenguangpuzhao</t>
+  </si>
+  <si>
+    <t>神霄雷法</t>
+  </si>
+  <si>
+    <t>shenxiaoleifa</t>
+  </si>
+  <si>
+    <t>仙童1</t>
+  </si>
+  <si>
+    <t>xiantong1</t>
+  </si>
+  <si>
+    <t>仙童2</t>
+  </si>
+  <si>
+    <t>xiantong2</t>
+  </si>
+  <si>
+    <t>玄女1</t>
+  </si>
+  <si>
+    <t>xuannv1</t>
+  </si>
+  <si>
+    <t>玄女2</t>
+  </si>
+  <si>
+    <t>xuannv2</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>特效时长</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETime</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.7</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uiHuJi</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iuHuoLianJi</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2347,404 +2808,18 @@
       </rPr>
       <t>JiuYangGong_Hit_Right</t>
     </r>
-  </si>
-  <si>
-    <t>捞月铲法</t>
-  </si>
-  <si>
-    <t>laoyuechanfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LaoYueChanFa_Left|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LaoYueChanFa_Right</t>
-    </r>
-  </si>
-  <si>
-    <t>易筋经_扫地僧</t>
-  </si>
-  <si>
-    <t>yijinjing_saodiseng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YiJinJing_SaoDiSeng_Pre_Left|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YiJinJing_SaoDiSeng_Pre_Right</t>
-    </r>
-  </si>
-  <si>
-    <t>YiJinJing_Hit_Left|YiJinJing_Hit_Right</t>
-  </si>
-  <si>
-    <t>金刚不坏身</t>
-  </si>
-  <si>
-    <t>jingangbuhuaishen</t>
-  </si>
-  <si>
-    <t>醉葫击</t>
-  </si>
-  <si>
-    <t>zuihuji</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-  </si>
-  <si>
-    <t>酒火连击</t>
-  </si>
-  <si>
-    <t>jiuhuolianji</t>
-  </si>
-  <si>
-    <t>打狗棒法_洪七</t>
-  </si>
-  <si>
-    <t>dagoubangfa_hongqi</t>
-  </si>
-  <si>
-    <t>莲花落</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ianhualuo</t>
-    </r>
-  </si>
-  <si>
-    <t>太极剑法_张真人</t>
-  </si>
-  <si>
-    <t>taijijianfa_zhangzhenren</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-  </si>
-  <si>
-    <t>太极拳_张真人</t>
-  </si>
-  <si>
-    <t>taijiquan_zhangzhenren</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.8;0.6;0.6;1.2</t>
-    </r>
-  </si>
-  <si>
-    <t>太极剑法_脏道人</t>
-  </si>
-  <si>
-    <t>taijijianfa_zangdaoren</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.4;0.9;0.9</t>
-    </r>
-  </si>
-  <si>
-    <t>太极拳_脏道人</t>
-  </si>
-  <si>
-    <t>taijiquan_zangdaoren</t>
-  </si>
-  <si>
-    <t>0.8;0.4;0.4</t>
-  </si>
-  <si>
-    <t>言灵</t>
-  </si>
-  <si>
-    <t>yanling</t>
-  </si>
-  <si>
-    <t>乾坤一掷</t>
-  </si>
-  <si>
-    <t>qiankunyizhi</t>
-  </si>
-  <si>
-    <t>灭绝1</t>
-  </si>
-  <si>
-    <t>miejue1</t>
-  </si>
-  <si>
-    <t>灭绝2</t>
-  </si>
-  <si>
-    <t>miejue2</t>
-  </si>
-  <si>
-    <t>袖里乾坤</t>
-  </si>
-  <si>
-    <t>xiuliqiankun</t>
-  </si>
-  <si>
-    <t>青莲女神剑_独臂</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>qingliannvshenjian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_dubi</t>
-    </r>
-  </si>
-  <si>
-    <t>yujianshu_qiubujun</t>
-  </si>
-  <si>
-    <t>万剑归宗</t>
-  </si>
-  <si>
-    <t>wanjianguizong</t>
-  </si>
-  <si>
-    <t>紫霞掌</t>
-  </si>
-  <si>
-    <t>zixiazhang</t>
-  </si>
-  <si>
-    <t>紫气东来</t>
-  </si>
-  <si>
-    <t>ziqidonglai</t>
-  </si>
-  <si>
-    <t>地藏引</t>
-  </si>
-  <si>
-    <t>dizangyin</t>
-  </si>
-  <si>
-    <t>阎罗帖</t>
-  </si>
-  <si>
-    <t>yanluotie</t>
-  </si>
-  <si>
-    <t>千蛛万毒手_红药</t>
-  </si>
-  <si>
-    <t>qianzhuwandushou_hongyao</t>
-  </si>
-  <si>
-    <t>天罗朱网</t>
-  </si>
-  <si>
-    <t>tianluozhuwang</t>
-  </si>
-  <si>
-    <t>教主1</t>
-  </si>
-  <si>
-    <t>jiaozhu1</t>
-  </si>
-  <si>
-    <t>教主2</t>
-  </si>
-  <si>
-    <t>jiaozhu2</t>
-  </si>
-  <si>
-    <t>金乌刀</t>
-  </si>
-  <si>
-    <t>jinwudao</t>
-  </si>
-  <si>
-    <t>火拳</t>
-  </si>
-  <si>
-    <t>huoquan</t>
-  </si>
-  <si>
-    <t>剑舞</t>
-  </si>
-  <si>
-    <t>jianwu</t>
-  </si>
-  <si>
-    <t>幻影剑舞</t>
-  </si>
-  <si>
-    <t>huanyingjianwu</t>
-  </si>
-  <si>
-    <t>神光普照</t>
-  </si>
-  <si>
-    <t>shenguangpuzhao</t>
-  </si>
-  <si>
-    <t>神霄雷法</t>
-  </si>
-  <si>
-    <t>shenxiaoleifa</t>
-  </si>
-  <si>
-    <t>仙童1</t>
-  </si>
-  <si>
-    <t>xiantong1</t>
-  </si>
-  <si>
-    <t>仙童2</t>
-  </si>
-  <si>
-    <t>xiantong2</t>
-  </si>
-  <si>
-    <t>玄女1</t>
-  </si>
-  <si>
-    <t>xuannv1</t>
-  </si>
-  <si>
-    <t>玄女2</t>
-  </si>
-  <si>
-    <t>xuannv2</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>attack</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiuHuoLianJi_Hit_Left|JiuHuoLianJi_Hit_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2786,157 +2861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2946,10 +2870,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2958,13 +2911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
+        <fgColor theme="6" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,194 +2927,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3184,253 +2951,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3465,62 +2990,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3805,40 +3295,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.2211538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.7788461538462" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="6.77884615384615" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5576923076923" style="2" customWidth="1"/>
-    <col min="8" max="8" width="71" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.5576923076923" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.6634615384615" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9" style="2"/>
+    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="2"/>
     <col min="14" max="14" width="15" style="2" customWidth="1"/>
     <col min="15" max="23" width="9" style="2"/>
-    <col min="24" max="24" width="30.7788461538462" style="2" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3867,10 +3357,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3898,11 +3391,14 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3930,11 +3426,14 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3962,11 +3461,14 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -3989,9 +3491,12 @@
       <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J5" s="2">
+        <v>3.33</v>
+      </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="17" spans="1:9">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -4015,7 +3520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:9">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -4039,7 +3544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:9">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -4065,8 +3570,11 @@
       <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" ht="17" spans="1:9">
+      <c r="J8" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -4092,8 +3600,11 @@
       <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" ht="17" spans="1:9">
+      <c r="J9" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -4112,7 +3623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:9">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -4136,7 +3647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:9">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -4160,7 +3671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:9">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -4184,7 +3695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -4203,7 +3714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:9">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -4227,7 +3738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -4251,7 +3762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:9">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
@@ -4277,8 +3788,11 @@
       <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" ht="17" spans="1:9">
+      <c r="J17" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -4302,7 +3816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:9">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -4330,8 +3844,11 @@
       <c r="I19" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" ht="17" spans="1:9">
+      <c r="J19" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2005</v>
       </c>
@@ -4357,8 +3874,11 @@
       <c r="I20" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" ht="17" spans="1:9">
+      <c r="J20" s="2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2006</v>
       </c>
@@ -4384,8 +3904,11 @@
       <c r="I21" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" ht="17" spans="1:9">
+      <c r="J21" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
@@ -4409,7 +3932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:9">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2008</v>
       </c>
@@ -4433,7 +3956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:9">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
@@ -4459,8 +3982,11 @@
       <c r="I24" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" ht="17" spans="1:9">
+      <c r="J24" s="2">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
@@ -4486,8 +4012,11 @@
       <c r="I25" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" ht="17" spans="1:9">
+      <c r="J25" s="2">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
@@ -4513,8 +4042,11 @@
       <c r="I26" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" ht="17" spans="1:9">
+      <c r="J26" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
@@ -4542,8 +4074,11 @@
       <c r="I27" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" ht="17" spans="1:9">
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
@@ -4562,7 +4097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:9">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
@@ -4576,7 +4111,7 @@
         <v>122</v>
       </c>
       <c r="E29" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>28</v>
@@ -4589,7 +4124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:9">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
@@ -4614,8 +4149,11 @@
       <c r="I30" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" ht="17" spans="1:9">
+      <c r="J30" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
@@ -4639,7 +4177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:9">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
@@ -4665,8 +4203,11 @@
       <c r="I32" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" ht="17" spans="1:9">
+      <c r="J32" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4001</v>
       </c>
@@ -4690,7 +4231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4002</v>
       </c>
@@ -4714,7 +4255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:9">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4003</v>
       </c>
@@ -4736,7 +4277,7 @@
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" ht="17" spans="1:9">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
@@ -4759,8 +4300,11 @@
       <c r="I36" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" ht="17" spans="1:9">
+      <c r="J36" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4005</v>
       </c>
@@ -4782,7 +4326,7 @@
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" ht="17" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
@@ -4804,7 +4348,7 @@
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" ht="17" spans="1:9">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
@@ -4818,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>143</v>
@@ -4830,8 +4374,11 @@
       <c r="I39" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="40" ht="17" spans="1:9">
+      <c r="J39" s="2">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4008</v>
       </c>
@@ -4857,8 +4404,11 @@
       <c r="I40" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" ht="17" spans="1:9">
+      <c r="J40" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4009</v>
       </c>
@@ -4884,8 +4434,11 @@
       <c r="I41" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="42" ht="17" spans="1:9">
+      <c r="J41" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4010</v>
       </c>
@@ -4907,7 +4460,7 @@
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" ht="17" spans="1:9">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
@@ -4929,7 +4482,7 @@
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" ht="17" spans="1:8">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
@@ -4954,8 +4507,11 @@
       <c r="H44" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="45" ht="17" spans="1:8">
+      <c r="J44" s="2">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4013</v>
       </c>
@@ -4980,8 +4536,11 @@
       <c r="H45" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="46" ht="17" spans="1:9">
+      <c r="J45" s="2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4014</v>
       </c>
@@ -5007,8 +4566,11 @@
       <c r="I46" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" ht="17" spans="1:9">
+      <c r="J46" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4015</v>
       </c>
@@ -5034,8 +4596,11 @@
       <c r="I47" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="2">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4016</v>
       </c>
@@ -5057,7 +4622,7 @@
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
@@ -5078,7 +4643,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
@@ -5099,7 +4664,7 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
@@ -5120,7 +4685,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" ht="17" spans="1:9">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
@@ -5144,7 +4709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" ht="17" spans="1:9">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4021</v>
       </c>
@@ -5168,7 +4733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" ht="17" spans="1:9">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4022</v>
       </c>
@@ -5192,7 +4757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" ht="17" spans="1:9">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4023</v>
       </c>
@@ -5216,7 +4781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" ht="17" spans="1:9">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4024</v>
       </c>
@@ -5240,7 +4805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4025</v>
       </c>
@@ -5261,7 +4826,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" ht="17" spans="1:7">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
@@ -5282,7 +4847,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" ht="17" spans="1:9">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
@@ -5308,8 +4873,11 @@
       <c r="I59" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" ht="17" spans="1:8">
+      <c r="J59" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4028</v>
       </c>
@@ -5332,8 +4900,11 @@
       <c r="H60" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="61" ht="17" spans="1:8">
+      <c r="J60" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4029</v>
       </c>
@@ -5355,8 +4926,11 @@
       <c r="H61" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="62" ht="17" spans="1:9">
+      <c r="J61" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5001</v>
       </c>
@@ -5382,8 +4956,11 @@
       <c r="I62" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" ht="17" spans="1:9">
+      <c r="J62" s="2">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>5002</v>
       </c>
@@ -5408,8 +4985,11 @@
       <c r="I63" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="64" ht="17" spans="1:9">
+      <c r="J63" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>5003</v>
       </c>
@@ -5435,8 +5015,11 @@
       <c r="I64" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" ht="17" spans="1:9">
+      <c r="J64" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>5004</v>
       </c>
@@ -5462,8 +5045,11 @@
       <c r="I65" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="66" ht="17" spans="1:9">
+      <c r="J65" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>5005</v>
       </c>
@@ -5486,19 +5072,22 @@
       <c r="H66" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" ht="17" spans="1:8">
+      <c r="I66" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5511,45 +5100,51 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" ht="17" spans="1:9">
+        <v>256</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5562,73 +5157,91 @@
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" ht="17" spans="1:8">
+      <c r="J69" s="2">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="2"/>
+      <c r="D70" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="H70" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D71" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>340</v>
+      </c>
       <c r="F71" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J71" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>268</v>
+      </c>
       <c r="F72" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" ht="17" spans="1:7">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
@@ -5636,18 +5249,18 @@
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" ht="17" spans="1:7">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
@@ -5655,18 +5268,18 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" ht="17" spans="1:7">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
@@ -5674,18 +5287,18 @@
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" ht="17" spans="1:7">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
@@ -5693,18 +5306,18 @@
       </c>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
@@ -5712,15 +5325,15 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
@@ -5728,15 +5341,15 @@
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4" t="s">
@@ -5744,15 +5357,15 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
@@ -5760,15 +5373,15 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>5020</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
@@ -5776,15 +5389,15 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
@@ -5792,15 +5405,15 @@
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" ht="17" spans="1:7">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
@@ -5808,7 +5421,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
@@ -5816,7 +5429,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
@@ -5826,15 +5439,15 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
@@ -5842,15 +5455,15 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
@@ -5858,15 +5471,15 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
@@ -5874,15 +5487,15 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
@@ -5890,15 +5503,15 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
@@ -5906,15 +5519,15 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
@@ -5922,15 +5535,15 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
@@ -5938,15 +5551,15 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
@@ -5954,15 +5567,15 @@
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
@@ -5970,15 +5583,15 @@
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
@@ -5986,15 +5599,15 @@
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
@@ -6002,15 +5615,15 @@
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
@@ -6018,15 +5631,15 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
@@ -6034,15 +5647,15 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
@@ -6050,15 +5663,15 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
@@ -6066,15 +5679,15 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
@@ -6082,15 +5695,15 @@
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
@@ -6098,15 +5711,15 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
@@ -6114,15 +5727,15 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
@@ -6130,15 +5743,15 @@
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" ht="17" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>
@@ -6154,11 +5767,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9AD46-858A-4FAF-901B-7A93DBF4B183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A30626-DC51-4003-8323-48EF21B522AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="350">
   <si>
     <t>ID</t>
   </si>
@@ -188,26 +188,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;1.1;2;2.9</t>
-    </r>
-  </si>
-  <si>
     <t>己方</t>
   </si>
   <si>
@@ -2536,18 +2516,6 @@
     <t>qiankunyizhi</t>
   </si>
   <si>
-    <t>灭绝1</t>
-  </si>
-  <si>
-    <t>miejue1</t>
-  </si>
-  <si>
-    <t>灭绝2</t>
-  </si>
-  <si>
-    <t>miejue2</t>
-  </si>
-  <si>
     <t>袖里乾坤</t>
   </si>
   <si>
@@ -2812,6 +2780,97 @@
   </si>
   <si>
     <t>JiuHuoLianJi_Hit_Left|JiuHuoLianJi_Hit_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意剑法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝剑法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugong</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6;0.95;1.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MieJueJianFa_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|MieJueJianFa_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MieJueJianFa_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|MieJueJianFa_Left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RuYiJianFa_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|RuYiJianFa_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiZuChangQuan_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiZuChangQuan_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15;1;1.75;2.5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2955,7 +3014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2982,9 +3041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3304,8 +3360,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3391,8 +3447,8 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>337</v>
+      <c r="J2" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -3426,8 +3482,8 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>338</v>
+      <c r="J3" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
@@ -3461,8 +3517,8 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>339</v>
+      <c r="J4" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -3481,16 +3537,17 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="2">
         <v>3.33</v>
       </c>
@@ -3501,23 +3558,23 @@
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3525,23 +3582,23 @@
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3549,26 +3606,26 @@
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2">
         <v>0.9</v>
@@ -3579,10 +3636,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3591,14 +3648,14 @@
         <v>0.4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="J9" s="2">
         <v>1.1499999999999999</v>
@@ -3609,18 +3666,18 @@
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3628,23 +3685,23 @@
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3652,23 +3709,23 @@
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3676,23 +3733,23 @@
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3700,18 +3757,18 @@
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3719,23 +3776,23 @@
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3743,23 +3800,23 @@
         <v>2001</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3767,26 +3824,26 @@
         <v>2002</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2">
         <v>0.35</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J17" s="2">
         <v>1.5</v>
@@ -3797,23 +3854,23 @@
         <v>2003</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3821,28 +3878,28 @@
         <v>2004</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J19" s="2">
         <v>2.1</v>
@@ -3853,26 +3910,26 @@
         <v>2005</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2">
         <v>1.55</v>
@@ -3883,10 +3940,10 @@
         <v>2006</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -3895,14 +3952,14 @@
         <v>0.7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J21" s="2">
         <v>3.3</v>
@@ -3913,23 +3970,23 @@
         <v>2007</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3937,23 +3994,23 @@
         <v>2008</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,10 +4018,10 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -3973,14 +4030,14 @@
         <v>0.8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J24" s="2">
         <v>2.74</v>
@@ -3991,10 +4048,10 @@
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4003,14 +4060,14 @@
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="J25" s="2">
         <v>3.05</v>
@@ -4021,26 +4078,26 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="J26" s="2">
         <v>1.8</v>
@@ -4051,28 +4108,28 @@
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
@@ -4083,18 +4140,18 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,26 +4159,26 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4129,25 +4186,25 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="J30" s="2">
         <v>1.5</v>
@@ -4158,23 +4215,23 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,26 +4239,26 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="J32" s="2">
         <v>2.1</v>
@@ -4212,23 +4269,23 @@
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -4236,23 +4293,23 @@
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4260,19 +4317,19 @@
         <v>4003</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="4"/>
       <c r="I35" s="4"/>
@@ -4282,23 +4339,23 @@
         <v>4004</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" s="4"/>
       <c r="I36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36" s="2">
         <v>1.4</v>
@@ -4309,19 +4366,19 @@
         <v>4005</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
@@ -4331,19 +4388,19 @@
         <v>4006</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
@@ -4353,10 +4410,10 @@
         <v>4007</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4365,14 +4422,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="J39" s="2">
         <v>2.91</v>
@@ -4383,10 +4440,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4395,14 +4452,14 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="J40" s="2">
         <v>1.1499999999999999</v>
@@ -4413,26 +4470,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J41" s="2">
         <v>4.2</v>
@@ -4443,19 +4500,19 @@
         <v>4010</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
@@ -4465,19 +4522,19 @@
         <v>4011</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
@@ -4487,25 +4544,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="J44" s="2">
         <v>2.17</v>
@@ -4516,25 +4573,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="J45" s="2">
         <v>1.44</v>
@@ -4545,10 +4602,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4557,14 +4614,14 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J46" s="2">
         <v>2.33</v>
@@ -4575,10 +4632,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4587,14 +4644,14 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="J47" s="2">
         <v>3.69</v>
@@ -4605,10 +4662,10 @@
         <v>4016</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4617,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
@@ -4627,10 +4684,10 @@
         <v>4017</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4639,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -4648,10 +4705,10 @@
         <v>4018</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4660,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -4669,19 +4726,19 @@
         <v>4019</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="4"/>
     </row>
@@ -4690,10 +4747,10 @@
         <v>4020</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4702,11 +4759,11 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4714,10 +4771,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4726,11 +4783,11 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4738,10 +4795,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4750,11 +4807,11 @@
         <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4762,10 +4819,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4774,11 +4831,11 @@
         <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4786,10 +4843,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4798,11 +4855,11 @@
         <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4810,19 +4867,19 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="4"/>
     </row>
@@ -4831,19 +4888,19 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G58" s="4"/>
     </row>
@@ -4852,10 +4909,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4864,14 +4921,14 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J59" s="2">
         <v>3.3</v>
@@ -4882,10 +4939,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4894,11 +4951,11 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J60" s="2">
         <v>0.9</v>
@@ -4909,22 +4966,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="J61" s="2">
         <v>0.81</v>
@@ -4935,10 +4992,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -4947,14 +5004,14 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="J62" s="2">
         <v>3.05</v>
@@ -4965,10 +5022,10 @@
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -4977,13 +5034,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="J63" s="2">
         <v>1.03</v>
@@ -4994,10 +5051,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -5006,14 +5063,14 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J64" s="2">
         <v>2.46</v>
@@ -5024,26 +5081,26 @@
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="J65" s="2">
         <v>1.4</v>
@@ -5054,10 +5111,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -5066,14 +5123,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>343</v>
+        <v>252</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="J66" s="2">
         <v>3.6</v>
@@ -5084,10 +5141,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5096,11 +5153,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J67" s="2">
         <v>0.57999999999999996</v>
@@ -5111,10 +5168,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -5123,14 +5180,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="J68" s="2">
         <v>3.1</v>
@@ -5141,10 +5198,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5153,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
@@ -5166,10 +5223,10 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D70" s="2">
         <v>0.8</v>
@@ -5178,11 +5235,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="13" t="s">
-        <v>341</v>
+      <c r="H70" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="J70" s="2">
         <v>0.8</v>
@@ -5193,26 +5250,26 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D71" s="2">
         <v>2.35</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>340</v>
+      <c r="E71" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>344</v>
+      <c r="H71" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="J71" s="2">
         <v>2.35</v>
@@ -5223,13 +5280,13 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -5238,14 +5295,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -5254,17 +5311,17 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G74" s="4"/>
     </row>
@@ -5273,17 +5330,17 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G75" s="4"/>
     </row>
@@ -5292,17 +5349,17 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G76" s="4"/>
     </row>
@@ -5311,17 +5368,17 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G77" s="4"/>
     </row>
@@ -5330,14 +5387,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -5346,14 +5403,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -5362,272 +5419,297 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="F80" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>5020</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" s="2"/>
+      <c r="B81" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.65</v>
+      </c>
       <c r="F81" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5636,14 +5718,14 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5652,14 +5734,14 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5668,14 +5750,14 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5684,14 +5766,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5700,14 +5782,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -5716,14 +5798,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5732,14 +5814,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -5748,10 +5830,10 @@
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>
@@ -5760,10 +5842,10 @@
         <v>0.4</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A30626-DC51-4003-8323-48EF21B522AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F3C65-8C05-4B16-A9F0-6B93F273A03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3359,9 +3359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5434,7 +5434,7 @@
         <v>237</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="12" t="s">
+      <c r="I80" s="12" t="s">
         <v>347</v>
       </c>
       <c r="J80" s="2">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F3C65-8C05-4B16-A9F0-6B93F273A03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EE752-B6BF-425B-AB36-48669741ED0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="365">
   <si>
     <t>ID</t>
   </si>
@@ -1200,26 +1200,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.05;1.2;1.9</t>
-    </r>
-  </si>
-  <si>
     <t>敌方</t>
   </si>
   <si>
@@ -1272,26 +1252,6 @@
         <charset val="134"/>
       </rPr>
       <t>.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.5;1.4</t>
     </r>
   </si>
   <si>
@@ -2871,6 +2831,175 @@
   </si>
   <si>
     <t>0.15;1;1.75;2.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9;1.3;1.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39;1.56</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LuoHanFuMoQuan_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|LuoHanFuMoQuan_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaGouBangFa_Hit_Left|DaGouBangFa_Hit_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaGouBangFa_Left|DaGouBangFa_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiaoYuGunFa_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|DiaoYuGunFa_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DiaoYuGunFa_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|DiaoYuGunFa_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7;1.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiQuan_ZDR_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiQuan_ZDR_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiQuan_ZZR_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiQuan_ZZR_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiJianFa_ZDR_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiJianFa_ZDR_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaiJiJianFa_ZZR_Left|TaiJiJianFa_ZZR_Right</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiJianFa_Hit_ZZR_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiJianFa_Hit_ZZR_Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37;1.35</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.95;1.65</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75;1.66</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.65;1.45</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3359,9 +3488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3448,7 +3577,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -3483,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
@@ -3518,7 +3647,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -3538,14 +3667,14 @@
         <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2">
@@ -4277,15 +4406,21 @@
       <c r="D33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>28</v>
+      <c r="H33" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.75</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -4293,23 +4428,29 @@
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>146</v>
+      <c r="E34" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>28</v>
+      <c r="H34" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4317,45 +4458,51 @@
         <v>4003</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
+      <c r="E35" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="4"/>
+      <c r="H35" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="I35" s="4"/>
+      <c r="J35" s="2">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4004</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="4"/>
       <c r="I36" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J36" s="2">
         <v>1.4</v>
@@ -4366,19 +4513,19 @@
         <v>4005</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="4"/>
       <c r="I37" s="4"/>
@@ -4388,19 +4535,19 @@
         <v>4006</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
@@ -4410,10 +4557,10 @@
         <v>4007</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4422,14 +4569,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J39" s="2">
         <v>2.91</v>
@@ -4440,10 +4587,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4452,14 +4599,14 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J40" s="2">
         <v>1.1499999999999999</v>
@@ -4470,26 +4617,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J41" s="2">
         <v>4.2</v>
@@ -4500,19 +4647,19 @@
         <v>4010</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
@@ -4522,19 +4669,19 @@
         <v>4011</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="4"/>
@@ -4544,25 +4691,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="J44" s="2">
         <v>2.17</v>
@@ -4573,25 +4720,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="J45" s="2">
         <v>1.44</v>
@@ -4602,10 +4749,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4614,14 +4761,14 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J46" s="2">
         <v>2.33</v>
@@ -4632,10 +4779,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4644,14 +4791,14 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J47" s="2">
         <v>3.69</v>
@@ -4662,10 +4809,10 @@
         <v>4016</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -4674,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
@@ -4684,10 +4831,10 @@
         <v>4017</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -4696,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -4705,10 +4852,10 @@
         <v>4018</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -4717,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -4726,19 +4873,19 @@
         <v>4019</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G51" s="4"/>
     </row>
@@ -4747,10 +4894,10 @@
         <v>4020</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4759,7 +4906,7 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="4"/>
       <c r="I52" s="4" t="s">
@@ -4771,10 +4918,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4783,7 +4930,7 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="4"/>
       <c r="I53" s="4" t="s">
@@ -4795,10 +4942,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4807,7 +4954,7 @@
         <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
@@ -4819,10 +4966,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4831,7 +4978,7 @@
         <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
@@ -4843,10 +4990,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4855,7 +5002,7 @@
         <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
@@ -4867,19 +5014,19 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="4"/>
     </row>
@@ -4888,19 +5035,19 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="4"/>
     </row>
@@ -4909,10 +5056,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -4921,7 +5068,7 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
@@ -4939,10 +5086,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4951,11 +5098,11 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J60" s="2">
         <v>0.9</v>
@@ -4966,22 +5113,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="J61" s="2">
         <v>0.81</v>
@@ -4992,10 +5139,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -5004,7 +5151,7 @@
         <v>1.55</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
@@ -5022,10 +5169,10 @@
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -5034,13 +5181,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J63" s="2">
         <v>1.03</v>
@@ -5051,10 +5198,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -5063,11 +5210,11 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>101</v>
@@ -5081,26 +5228,26 @@
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J65" s="2">
         <v>1.4</v>
@@ -5111,10 +5258,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -5123,14 +5270,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J66" s="2">
         <v>3.6</v>
@@ -5141,10 +5288,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5153,11 +5300,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J67" s="2">
         <v>0.57999999999999996</v>
@@ -5168,10 +5315,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -5180,14 +5327,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J68" s="2">
         <v>3.1</v>
@@ -5198,10 +5345,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5210,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
@@ -5223,10 +5370,10 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D70" s="2">
         <v>0.8</v>
@@ -5235,11 +5382,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J70" s="2">
         <v>0.8</v>
@@ -5250,26 +5397,26 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D71" s="2">
         <v>2.35</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="J71" s="2">
         <v>2.35</v>
@@ -5280,13 +5427,13 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -5295,14 +5442,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="E73" s="12"/>
       <c r="F73" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -5311,90 +5458,125 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="12" t="s">
+        <v>361</v>
+      </c>
       <c r="F74" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G74" s="4"/>
+      <c r="H74" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="12" t="s">
+        <v>362</v>
+      </c>
       <c r="F75" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G75" s="4"/>
+      <c r="H75" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="12" t="s">
+        <v>363</v>
+      </c>
       <c r="F76" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G76" s="4"/>
+      <c r="H76" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="J76" s="2">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="F77" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G77" s="4"/>
+      <c r="H77" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="J77" s="2">
+        <v>2.4500000000000002</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -5403,14 +5585,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -5419,23 +5601,23 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G80" s="4"/>
       <c r="I80" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J80" s="2">
         <v>1.5</v>
@@ -5446,10 +5628,10 @@
         <v>5020</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -5458,14 +5640,14 @@
         <v>0.65</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J81" s="2">
         <v>1.58</v>
@@ -5476,14 +5658,14 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G82" s="4"/>
     </row>
@@ -5492,14 +5674,14 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G83" s="4"/>
     </row>
@@ -5511,11 +5693,11 @@
         <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -5526,14 +5708,14 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -5542,14 +5724,14 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G86" s="4"/>
     </row>
@@ -5558,14 +5740,14 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G87" s="4"/>
     </row>
@@ -5574,14 +5756,14 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -5590,14 +5772,14 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -5606,14 +5788,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -5622,14 +5804,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -5638,14 +5820,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -5654,14 +5836,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -5670,14 +5852,14 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -5686,14 +5868,14 @@
         <v>5034</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -5702,14 +5884,14 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -5718,14 +5900,14 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -5734,14 +5916,14 @@
         <v>5037</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G98" s="4"/>
     </row>
@@ -5750,14 +5932,14 @@
         <v>5038</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G99" s="4"/>
     </row>
@@ -5766,14 +5948,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -5782,14 +5964,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -5798,14 +5980,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -5814,14 +5996,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -5830,10 +6012,10 @@
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EE752-B6BF-425B-AB36-48669741ED0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EC3B-9EDB-48B6-A4B7-75379703EC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -3000,6 +3000,10 @@
   </si>
   <si>
     <t>0.2;0.65;1.45</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3007,7 +3011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3089,6 +3093,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3160,9 +3171,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,6 +3190,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3488,9 +3499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3498,7 +3509,7 @@
     <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -3576,7 +3587,7 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>330</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3611,7 +3622,7 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>331</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3646,7 +3657,7 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>332</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -3666,14 +3677,14 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>347</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>346</v>
       </c>
       <c r="I5" s="4"/>
@@ -3958,7 +3969,9 @@
       <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="13" t="s">
+        <v>365</v>
+      </c>
       <c r="E17" s="2">
         <v>0.35</v>
       </c>
@@ -4068,7 +4081,7 @@
       <c r="A21" s="2">
         <v>2006</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4191,7 +4204,7 @@
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="2" t="s">
         <v>104</v>
       </c>
@@ -4413,10 +4426,10 @@
         <v>141</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>351</v>
       </c>
       <c r="J33" s="2">
@@ -4436,17 +4449,17 @@
       <c r="D34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>349</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>353</v>
       </c>
       <c r="J34" s="2">
@@ -4457,7 +4470,7 @@
       <c r="A35" s="2">
         <v>4003</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4466,14 +4479,14 @@
       <c r="D35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>355</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="11" t="s">
         <v>350</v>
       </c>
       <c r="I35" s="4"/>
@@ -4485,7 +4498,7 @@
       <c r="A36" s="2">
         <v>4004</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4512,7 +4525,7 @@
       <c r="A37" s="2">
         <v>4005</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4534,7 +4547,7 @@
       <c r="A38" s="2">
         <v>4006</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4556,7 +4569,7 @@
       <c r="A39" s="2">
         <v>4007</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4586,7 +4599,7 @@
       <c r="A40" s="2">
         <v>4008</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4616,7 +4629,7 @@
       <c r="A41" s="2">
         <v>4009</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -4646,7 +4659,7 @@
       <c r="A42" s="2">
         <v>4010</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -4668,7 +4681,7 @@
       <c r="A43" s="2">
         <v>4011</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4690,7 +4703,7 @@
       <c r="A44" s="2">
         <v>4012</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4719,7 +4732,7 @@
       <c r="A45" s="2">
         <v>4013</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4778,7 +4791,7 @@
       <c r="A47" s="2">
         <v>4015</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4808,7 +4821,7 @@
       <c r="A48" s="2">
         <v>4016</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4830,7 +4843,7 @@
       <c r="A49" s="2">
         <v>4017</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4851,7 +4864,7 @@
       <c r="A50" s="2">
         <v>4018</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4872,7 +4885,7 @@
       <c r="A51" s="2">
         <v>4019</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4893,7 +4906,7 @@
       <c r="A52" s="2">
         <v>4020</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -5276,7 +5289,7 @@
       <c r="H66" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>336</v>
       </c>
       <c r="J66" s="2">
@@ -5385,7 +5398,7 @@
         <v>235</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="11" t="s">
         <v>334</v>
       </c>
       <c r="J70" s="2">
@@ -5405,17 +5418,17 @@
       <c r="D71" s="2">
         <v>2.35</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>333</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>337</v>
       </c>
       <c r="J71" s="2">
@@ -5447,7 +5460,7 @@
       <c r="C73" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
         <v>235</v>
       </c>
@@ -5466,17 +5479,17 @@
       <c r="D74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>361</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="11" t="s">
         <v>360</v>
       </c>
       <c r="J74" s="2">
@@ -5496,14 +5509,14 @@
       <c r="D75" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>362</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="11" t="s">
         <v>357</v>
       </c>
       <c r="J75" s="2">
@@ -5523,14 +5536,14 @@
       <c r="D76" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>363</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="11" t="s">
         <v>358</v>
       </c>
       <c r="J76" s="2">
@@ -5550,14 +5563,14 @@
       <c r="D77" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>364</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="11" t="s">
         <v>356</v>
       </c>
       <c r="J77" s="2">
@@ -5590,7 +5603,7 @@
       <c r="C79" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="4" t="s">
         <v>235</v>
       </c>
@@ -5603,20 +5616,20 @@
       <c r="B80" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>340</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="11" t="s">
         <v>342</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="I80" s="12" t="s">
+      <c r="I80" s="11" t="s">
         <v>345</v>
       </c>
       <c r="J80" s="2">
@@ -5627,26 +5640,26 @@
       <c r="A81" s="2">
         <v>5020</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>341</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>0.65</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="I81" s="11" t="s">
         <v>343</v>
       </c>
       <c r="J81" s="2">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EC3B-9EDB-48B6-A4B7-75379703EC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B1B1E-4814-4F28-9DC2-640EB15BC5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="402">
   <si>
     <t>ID</t>
   </si>
@@ -824,29 +824,6 @@
     <t>xianglongzhang</t>
   </si>
   <si>
-    <t>XiangLongShiBaZhang_Muzzle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XiangLongShiBaZhang_Hit_Left|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XiangLongShiBaZhang_Hit_Right</t>
-    </r>
-  </si>
-  <si>
     <t>六脉神剑</t>
   </si>
   <si>
@@ -1767,9 +1744,6 @@
     </r>
   </si>
   <si>
-    <t>波动拳</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2505,27 +2479,15 @@
     </r>
   </si>
   <si>
-    <t>yujianshu_qiubujun</t>
-  </si>
-  <si>
     <t>万剑归宗</t>
   </si>
   <si>
-    <t>wanjianguizong</t>
-  </si>
-  <si>
     <t>紫霞掌</t>
   </si>
   <si>
-    <t>zixiazhang</t>
-  </si>
-  <si>
     <t>紫气东来</t>
   </si>
   <si>
-    <t>ziqidonglai</t>
-  </si>
-  <si>
     <t>地藏引</t>
   </si>
   <si>
@@ -2568,36 +2530,9 @@
     <t>jinwudao</t>
   </si>
   <si>
-    <t>火拳</t>
-  </si>
-  <si>
     <t>huoquan</t>
   </si>
   <si>
-    <t>剑舞</t>
-  </si>
-  <si>
-    <t>jianwu</t>
-  </si>
-  <si>
-    <t>幻影剑舞</t>
-  </si>
-  <si>
-    <t>huanyingjianwu</t>
-  </si>
-  <si>
-    <t>神光普照</t>
-  </si>
-  <si>
-    <t>shenguangpuzhao</t>
-  </si>
-  <si>
-    <t>神霄雷法</t>
-  </si>
-  <si>
-    <t>shenxiaoleifa</t>
-  </si>
-  <si>
     <t>仙童1</t>
   </si>
   <si>
@@ -2629,15 +2564,15 @@
   </si>
   <si>
     <t>特效时长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2654,7 +2589,7 @@
       </rPr>
       <t>ETime</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2681,7 +2616,7 @@
       </rPr>
       <t>1.7</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2698,7 +2633,7 @@
       </rPr>
       <t>uiHuJi</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2715,7 +2650,7 @@
       </rPr>
       <t>iuHuoLianJi</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2736,31 +2671,31 @@
       </rPr>
       <t>JiuYangGong_Hit_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>JiuHuoLianJi_Hit_Left|JiuHuoLianJi_Hit_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如意剑法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灭绝剑法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pugong</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skill</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.6;0.95;1.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2777,7 +2712,7 @@
       </rPr>
       <t>|MieJueJianFa_Hit_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2810,7 +2745,7 @@
       </rPr>
       <t>|RuYiJianFa_Hit_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2827,19 +2762,19 @@
       </rPr>
       <t>|TaiZuChangQuan_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.15;1;1.75;2.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.9;1.3;1.8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.39;1.56</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2866,15 +2801,15 @@
       </rPr>
       <t>|LuoHanFuMoQuan_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DaGouBangFa_Hit_Left|DaGouBangFa_Hit_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DaGouBangFa_Left|DaGouBangFa_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2891,7 +2826,7 @@
       </rPr>
       <t>|DiaoYuGunFa_Hit_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2908,11 +2843,11 @@
       </rPr>
       <t>|DiaoYuGunFa_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.7;1.15</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2929,7 +2864,7 @@
       </rPr>
       <t>|TaiJiQuan_ZDR_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2946,7 +2881,7 @@
       </rPr>
       <t>|TaiJiQuan_ZZR_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2963,11 +2898,11 @@
       </rPr>
       <t>|TaiJiJianFa_ZDR_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>TaiJiJianFa_ZZR_Left|TaiJiJianFa_ZZR_Right</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2984,39 +2919,596 @@
       </rPr>
       <t>|TaiJiJianFa_Hit_ZZR_Right</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.37;1.35</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.2;0.95;1.65</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.75;1.66</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.2;0.65;1.45</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>御剑术</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yujianshu_qiubujun</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanjianguizong</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixiazhang</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqidonglai</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭日拳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianwu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanyingjianwu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂蟾刀</t>
+  </si>
+  <si>
+    <t>月华弄影</t>
+  </si>
+  <si>
+    <t>shenguangpuzhao</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenxiaoleifa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神光普照</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神霄雷法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>御寇拳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShanZeiAttack1_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShanZeiAttack1_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShanZeiAttack1_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShanZeiAttack2_Right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ShanZeiBossAttack1_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShanZeiBossAttack1_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShanZeiBossAttack1_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShanZeiBossAttack2_Right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>0.43;1.07;1.3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CiKeAttack1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CiKeAttack2_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|CiKeAttack2_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.6;0.9</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.25;0.75</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiJianFa_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiJianFa_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiJianFa_Hit__Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|TaiJiJianFa_Hit__Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TaiJiQuan_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaiJiQuan_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1.08</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.37;1.35</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QianZhuWanDuShou_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|QianZhuWanDuShou_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23;0.65;0.85;1.55</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WuDuBianFa_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|WuDuBianFa_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.69</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShenGuangPuZhao</t>
+  </si>
+  <si>
+    <r>
+      <t>ShenGuangPuZhao_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|ShenGuangPuZhao_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShenXiaoLeiFa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShenXiaoLeiFa_Hit_Left|ShenXiaoLeiFa_Hit_Right</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiangLongShiBaZhang</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiangLongShiBaZhang_Hit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZiQiDongLai</t>
+  </si>
+  <si>
+    <r>
+      <t>ZiQiDongLai_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|ZiQiDongLai_Hit_Right</t>
+    </r>
+  </si>
+  <si>
+    <t>0.5;0.9;1.3;1.7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZiXiaZhang</t>
+  </si>
+  <si>
+    <r>
+      <t>ZiXiaZhang_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|ZiXiaZhang_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QingLianJianFa_DuBi_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|QingLianJianFa_DuBi_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>QingLianJianFa_DuBi_Hit_Left|QingLianJianFa_DuBi_Hit_Right</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;2.08</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72;0.92;1.12;1.32;1.9;2.68</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XiuLiQianKun_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|XiuLiQianKun_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YuJianShu_QBJ_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|YuJianShu_QBJ_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YuJianShu_QBJ_Hit_Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|YuJianShu_QBJ_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3156,43 +3648,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3500,8 +3992,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F86:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3553,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3588,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -3623,7 +4115,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
@@ -3658,7 +4150,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -3678,14 +4170,14 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2">
@@ -3970,7 +4462,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E17" s="2">
         <v>0.35</v>
@@ -4199,20 +4691,20 @@
         <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>105</v>
+      <c r="H25" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="J25" s="2">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,13 +4712,13 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -4236,10 +4728,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J26" s="2">
         <v>1.8</v>
@@ -4250,25 +4742,25 @@
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>28</v>
@@ -4282,10 +4774,10 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
@@ -4301,13 +4793,13 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -4317,10 +4809,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4328,13 +4820,13 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -4343,10 +4835,10 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J30" s="2">
         <v>1.5</v>
@@ -4357,16 +4849,16 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -4381,13 +4873,13 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -4397,10 +4889,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J32" s="2">
         <v>2.1</v>
@@ -4411,26 +4903,26 @@
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="E33" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="11" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J33" s="2">
         <v>1.75</v>
@@ -4441,26 +4933,26 @@
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="11" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -4471,23 +4963,23 @@
         <v>4003</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2">
@@ -4499,23 +4991,23 @@
         <v>4004</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G36" s="4"/>
       <c r="I36" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J36" s="2">
         <v>1.4</v>
@@ -4526,54 +5018,68 @@
         <v>4005</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
+      <c r="E37" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4006</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
+      <c r="E38" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="4"/>
+      <c r="H38" s="11" t="s">
+        <v>376</v>
+      </c>
       <c r="I38" s="4"/>
+      <c r="J38" s="2">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4007</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4582,14 +5088,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J39" s="2">
         <v>2.91</v>
@@ -4600,10 +5106,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4612,14 +5118,14 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J40" s="2">
         <v>1.1499999999999999</v>
@@ -4630,26 +5136,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J41" s="2">
         <v>4.2</v>
@@ -4660,69 +5166,81 @@
         <v>4010</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
+      <c r="E42" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" s="4"/>
+      <c r="H42" s="11" t="s">
+        <v>381</v>
+      </c>
       <c r="I42" s="4"/>
+      <c r="J42" s="2">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4011</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
+      <c r="E43" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G43" s="4"/>
+      <c r="H43" s="11" t="s">
+        <v>379</v>
+      </c>
       <c r="I43" s="4"/>
+      <c r="J43" s="2">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4012</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="J44" s="2">
         <v>2.17</v>
@@ -4733,25 +5251,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J45" s="2">
         <v>1.44</v>
@@ -4761,11 +5279,11 @@
       <c r="A46" s="2">
         <v>4014</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>190</v>
+      <c r="B46" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -4774,14 +5292,14 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J46" s="2">
         <v>2.33</v>
@@ -4792,10 +5310,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4804,14 +5322,14 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J47" s="2">
         <v>3.69</v>
@@ -4822,95 +5340,119 @@
         <v>4016</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G48" s="4"/>
+      <c r="H48" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="I48" s="4"/>
+      <c r="J48" s="2">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4017</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G49" s="4"/>
+      <c r="H49" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4018</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G50" s="4"/>
+      <c r="H50" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4019</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G51" s="4"/>
+      <c r="H51" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4020</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4919,7 +5461,7 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G52" s="4"/>
       <c r="I52" s="4" t="s">
@@ -4931,10 +5473,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -4943,7 +5485,7 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G53" s="4"/>
       <c r="I53" s="4" t="s">
@@ -4955,10 +5497,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4967,7 +5509,7 @@
         <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
@@ -4979,10 +5521,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -4991,7 +5533,7 @@
         <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
@@ -5003,10 +5545,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -5015,7 +5557,7 @@
         <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
@@ -5027,52 +5569,64 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G57" s="4"/>
+      <c r="H57" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G58" s="4"/>
+      <c r="H58" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -5081,7 +5635,7 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
@@ -5099,10 +5653,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -5111,11 +5665,11 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J60" s="2">
         <v>0.9</v>
@@ -5126,22 +5680,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="J61" s="2">
         <v>0.81</v>
@@ -5152,29 +5706,29 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2">
-        <v>1.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>105</v>
+        <v>232</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="J62" s="2">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5182,10 +5736,10 @@
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -5194,13 +5748,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J63" s="2">
         <v>1.03</v>
@@ -5211,10 +5765,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -5223,11 +5777,11 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>101</v>
@@ -5241,26 +5795,26 @@
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J65" s="2">
         <v>1.4</v>
@@ -5271,10 +5825,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -5283,14 +5837,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="J66" s="2">
         <v>3.6</v>
@@ -5301,10 +5855,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5313,11 +5867,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J67" s="2">
         <v>0.57999999999999996</v>
@@ -5328,10 +5882,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -5340,14 +5894,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J68" s="2">
         <v>3.1</v>
@@ -5358,10 +5912,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -5370,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
@@ -5383,10 +5937,10 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D70" s="2">
         <v>0.8</v>
@@ -5395,11 +5949,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J70" s="2">
         <v>0.8</v>
@@ -5410,26 +5964,26 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D71" s="2">
         <v>2.35</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="J71" s="2">
         <v>2.35</v>
@@ -5440,13 +5994,13 @@
         <v>5011</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -5455,14 +6009,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -5471,26 +6025,26 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="11" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J74" s="2">
         <v>1.95</v>
@@ -5501,23 +6055,23 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="11" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="J75" s="2">
         <v>2.65</v>
@@ -5528,23 +6082,23 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="J76" s="2">
         <v>3.1</v>
@@ -5555,23 +6109,23 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="11" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="J77" s="2">
         <v>2.4500000000000002</v>
@@ -5582,14 +6136,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -5598,14 +6152,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -5614,23 +6168,23 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G80" s="4"/>
       <c r="I80" s="11" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="J80" s="2">
         <v>1.5</v>
@@ -5641,10 +6195,10 @@
         <v>5020</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -5653,14 +6207,14 @@
         <v>0.65</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="11" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J81" s="2">
         <v>1.58</v>
@@ -5671,64 +6225,101 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="F82" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G82" s="4"/>
+      <c r="H82" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="J82" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>396</v>
+      </c>
       <c r="F83" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G83" s="4"/>
+      <c r="H83" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J83" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.18</v>
+      </c>
       <c r="F84" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="H84" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -5737,62 +6328,88 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="4" t="s">
-        <v>235</v>
+        <v>286</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="G86" s="4"/>
+      <c r="H86" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="F87" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G87" s="4"/>
+      <c r="H87" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -5801,14 +6418,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="4" t="s">
-        <v>235</v>
+      <c r="F90" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -5817,14 +6434,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -5833,14 +6450,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -5849,14 +6466,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -5865,14 +6482,14 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -5880,15 +6497,15 @@
       <c r="A95" s="2">
         <v>5034</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>309</v>
+      <c r="B95" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -5897,138 +6514,161 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>312</v>
+        <v>358</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" s="11"/>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5037</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E98" s="2"/>
+      <c r="B98" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1.4</v>
+      </c>
       <c r="F98" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J98" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5038</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="B99" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.4</v>
+      </c>
       <c r="F99" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J99" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5039</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>5040</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5041</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>5042</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>
@@ -6047,7 +6687,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B1B1E-4814-4F28-9DC2-640EB15BC5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9ADA3A-609F-4543-AB0A-5F8ABD661B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,6 +85,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Atk</t>
@@ -95,6 +96,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Delay</t>
@@ -110,6 +112,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Foot</t>
@@ -120,6 +123,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>SE</t>
@@ -146,6 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5;0.5</t>
@@ -155,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;0.</t>
@@ -164,6 +170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -173,6 +180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -182,6 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -196,6 +205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Left|</t>
@@ -205,6 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Hit_Light_Right</t>
@@ -225,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -234,6 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.3;0.7;1.5;2.8</t>
@@ -254,6 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -263,6 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.45;0.55</t>
@@ -295,6 +310,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Left|</t>
@@ -304,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingMangZhi_BulletHit_Right</t>
@@ -330,6 +347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5;</t>
@@ -339,6 +357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -348,6 +367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.4;2</t>
@@ -368,6 +388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -377,6 +398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.4;0.8;1.6</t>
@@ -412,6 +434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.4;0.75;</t>
@@ -421,6 +444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -430,6 +454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.7;1.5</t>
@@ -453,6 +478,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -462,6 +488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.6;1.2;1.8;2.4</t>
@@ -482,6 +509,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>WuYingJiao_Hit</t>
@@ -491,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|WuYingJiao_Hit_Right</t>
@@ -508,6 +537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;</t>
@@ -517,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -526,6 +557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -535,6 +567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -544,6 +577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -553,6 +587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -562,6 +597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -571,6 +607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -582,6 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -591,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.7;0.9;1.1;1.3</t>
@@ -608,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -617,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5;1.5;1.5;1.5</t>
@@ -626,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -635,6 +677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5</t>
@@ -664,6 +707,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Left|</t>
@@ -673,6 +717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LieYanDaoFa_Right</t>
@@ -690,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Muzzle_Left</t>
@@ -699,6 +745,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YuJianShu_Muzzle_Right</t>
@@ -710,6 +757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Left|</t>
@@ -719,6 +767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YuJianShu_Hit_Right</t>
@@ -739,6 +788,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -748,6 +798,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.8;1.4;2;2.1</t>
@@ -765,6 +816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -774,6 +826,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.6;1.2;1.7;2.5</t>
@@ -794,6 +847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Left</t>
@@ -803,6 +857,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -812,6 +867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_bullet_Right</t>
@@ -841,6 +897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Left|</t>
@@ -850,6 +907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LiuMaiShenJian_BulletHit_Right</t>
@@ -867,6 +925,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -876,6 +935,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;0</t>
@@ -887,6 +947,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -896,6 +957,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -937,6 +999,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BaHuangLiuHe</t>
@@ -946,6 +1009,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>E</t>
@@ -966,6 +1030,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2;2;2</t>
@@ -975,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -989,6 +1055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Left|</t>
@@ -998,6 +1065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>TianCanJiao_Bullets_Right</t>
@@ -1015,6 +1083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1024,6 +1093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;0.5</t>
@@ -1035,6 +1105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1044,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1;1.5;1.6</t>
@@ -1061,6 +1133,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1070,6 +1143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5;0.5;1;2</t>
@@ -1081,6 +1155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Pre_</t>
@@ -1090,6 +1165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -1099,6 +1175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|YiJinJing_Pre_Right</t>
@@ -1110,6 +1187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Left|</t>
@@ -1119,6 +1197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_Hit_Right</t>
@@ -1133,6 +1212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -1142,6 +1222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>agoubangfa</t>
@@ -1153,6 +1234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.1;</t>
@@ -1162,6 +1244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1171,6 +1254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.4</t>
@@ -1188,6 +1272,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -1197,6 +1282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>iaoyugunfa</t>
@@ -1208,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2.1;</t>
@@ -1217,6 +1304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1226,6 +1314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2</t>
@@ -1240,6 +1329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -1249,6 +1339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uohanfumoquan</t>
@@ -1266,6 +1357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1275,6 +1367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianshouzhang</t>
@@ -1286,6 +1379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1;1</t>
@@ -1295,6 +1389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1;1;1;1;1</t>
@@ -1312,6 +1407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -1321,6 +1417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aijijianfa</t>
@@ -1332,6 +1429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8</t>
@@ -1341,6 +1439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -1350,6 +1449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1367,6 +1467,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8;0.6;0.6</t>
@@ -1376,6 +1477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -1385,6 +1487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1</t>
@@ -1402,6 +1505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Left|</t>
@@ -1411,6 +1515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>QingLianJianFa_Right</t>
@@ -1428,6 +1533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1437,6 +1543,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aimangbian</t>
@@ -1457,6 +1564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>h</t>
@@ -1466,6 +1574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uashanjian</t>
@@ -1477,6 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1486,6 +1596,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.2;1;-1;4</t>
@@ -1500,6 +1611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Left|</t>
@@ -1509,6 +1621,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>HuaShanJian_Right</t>
@@ -1529,6 +1642,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;1.5</t>
@@ -1538,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -1552,6 +1667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -1561,6 +1677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianzhuwandushou</t>
@@ -1578,6 +1695,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1587,6 +1705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odao</t>
@@ -1598,6 +1717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.5;2;</t>
@@ -1607,6 +1727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1616,6 +1737,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.1;2.6</t>
@@ -1633,6 +1755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa</t>
@@ -1642,6 +1765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1651,6 +1775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1660,6 +1785,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa1_Right</t>
@@ -1674,6 +1800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1683,6 +1810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odaoyishan</t>
@@ -1694,6 +1822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1703,6 +1832,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.2;1.7;2.3;2.5</t>
@@ -1720,6 +1850,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2</t>
@@ -1729,6 +1860,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_Left|</t>
@@ -1738,6 +1870,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>MoJiaoDaoFa2_Right</t>
@@ -1749,6 +1882,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>b</t>
@@ -1758,6 +1892,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>odongquan</t>
@@ -1772,6 +1907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Left|</t>
@@ -1781,6 +1917,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>BoDongQuan_Hit_Right</t>
@@ -1795,6 +1932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>y</t>
@@ -1804,6 +1942,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>eluoxinghejian</t>
@@ -1815,6 +1954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Right|</t>
@@ -1824,6 +1964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Left</t>
@@ -1835,6 +1976,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Left|</t>
@@ -1844,6 +1986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YeLuoXingHeJian_Hit_Right</t>
@@ -1924,6 +2067,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cike_attack_2</t>
@@ -1935,6 +2079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1944,6 +2089,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.5</t>
@@ -1967,6 +2113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Left</t>
@@ -1976,6 +2123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -1985,6 +2133,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiDaoQie_Right</t>
@@ -2002,6 +2151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.1</t>
@@ -2011,6 +2161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1.7;1.8</t>
@@ -2025,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_</t>
@@ -2034,6 +2186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left|</t>
@@ -2043,6 +2196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LangRenDaoFa_Right</t>
@@ -2066,6 +2220,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>q</t>
@@ -2075,6 +2230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inlonggong</t>
@@ -2095,6 +2251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rulaishenzhang</t>
@@ -2104,6 +2261,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_fangzhang</t>
@@ -2115,6 +2273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RuLaiShenZhang_Muzzle_</t>
@@ -2124,6 +2283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2133,6 +2293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_xkfs|RuLaiShenZhang_Muzzle_Right_xkfs</t>
@@ -2147,6 +2308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -2156,6 +2318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hanzhanggong</t>
@@ -2170,6 +2333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Bullet_</t>
@@ -2179,6 +2343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2188,6 +2353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Bullet_Right</t>
@@ -2199,6 +2365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChanZhangGong_Hit_</t>
@@ -2208,6 +2375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Left</t>
@@ -2217,6 +2385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|ChanZhangGong_Hit_Right</t>
@@ -2234,6 +2403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Left|</t>
@@ -2243,6 +2413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Right</t>
@@ -2260,6 +2431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Left|</t>
@@ -2269,6 +2441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>LaoYueChanFa_Right</t>
@@ -2286,6 +2459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Left|</t>
@@ -2295,6 +2469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YiJinJing_SaoDiSeng_Pre_Right</t>
@@ -2336,6 +2511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -2345,6 +2521,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ianhualuo</t>
@@ -2362,6 +2539,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2371,6 +2549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2</t>
@@ -2388,6 +2567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2397,6 +2577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.8;0.6;0.6;1.2</t>
@@ -2414,6 +2595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2423,6 +2605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.4;0.9;0.9</t>
@@ -2464,6 +2647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>qingliannvshenjian</t>
@@ -2473,6 +2657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_dubi</t>
@@ -2611,6 +2796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2658,6 +2844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Left|</t>
@@ -2667,6 +2854,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>JiuYangGong_Hit_Right</t>
@@ -2796,6 +2984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3287,6 +3476,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3308,6 +3498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3516,18 +3707,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3535,12 +3729,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3548,6 +3744,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3559,6 +3756,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3992,8 +4190,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F86:F91"/>
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6393,6 +6591,9 @@
       <c r="C88" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
       <c r="F88" s="11" t="s">
         <v>401</v>
       </c>
@@ -6406,6 +6607,9 @@
       </c>
       <c r="C89" s="4" t="s">
         <v>291</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9ADA3A-609F-4543-AB0A-5F8ABD661B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB3AD1-BF3A-48DE-AA35-E0BD94C358C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2292" yWindow="60" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -4190,8 +4190,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6756,6 +6756,9 @@
       <c r="C98" s="11" t="s">
         <v>360</v>
       </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
       <c r="E98" s="2">
         <v>1.4</v>
       </c>
@@ -6782,6 +6785,9 @@
       </c>
       <c r="C99" s="11" t="s">
         <v>361</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2</v>
       </c>
       <c r="E99" s="2">
         <v>1.4</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB3AD1-BF3A-48DE-AA35-E0BD94C358C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C2E8E3-C463-4E9F-8196-47880641C3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2292" yWindow="60" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -3680,6 +3680,10 @@
   </si>
   <si>
     <t>英雄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;0.6;0.6;0.8</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4190,8 +4194,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6191,7 +6195,7 @@
       <c r="A72" s="2">
         <v>5011</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -6206,7 +6210,7 @@
       <c r="A73" s="2">
         <v>5012</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -6333,7 +6337,7 @@
       <c r="A78" s="2">
         <v>5017</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -6349,7 +6353,7 @@
       <c r="A79" s="2">
         <v>5018</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="9" t="s">
         <v>279</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -6515,6 +6519,9 @@
       <c r="C85" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
         <v>232</v>
@@ -6653,7 +6660,7 @@
       <c r="A92" s="2">
         <v>5031</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -6669,7 +6676,7 @@
       <c r="A93" s="2">
         <v>5032</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -6691,6 +6698,9 @@
       <c r="C94" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
         <v>232</v>
@@ -6707,6 +6717,9 @@
       <c r="C95" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="D95" s="2">
+        <v>1.4</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
         <v>232</v>
@@ -6723,6 +6736,9 @@
       <c r="C96" s="11" t="s">
         <v>356</v>
       </c>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
         <v>232</v>
@@ -6739,7 +6755,9 @@
       <c r="C97" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
         <v>232</v>
@@ -6810,7 +6828,7 @@
       <c r="A100" s="2">
         <v>5039</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -6826,7 +6844,7 @@
       <c r="A101" s="2">
         <v>5040</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -6842,7 +6860,7 @@
       <c r="A102" s="2">
         <v>5041</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="9" t="s">
         <v>307</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -6858,7 +6876,7 @@
       <c r="A103" s="2">
         <v>5042</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C103" s="4" t="s">

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C2E8E3-C463-4E9F-8196-47880641C3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFF5FA-72D5-47A0-89E7-7C2F20C86E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="401">
   <si>
     <t>ID</t>
   </si>
@@ -2882,10 +2882,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.6;0.95;1.2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>MieJueJianFa_Hit_Left</t>
     </r>
@@ -3560,10 +3556,6 @@
       </rPr>
       <t>|ZiQiDongLai_Hit_Right</t>
     </r>
-  </si>
-  <si>
-    <t>0.5;0.9;1.3;1.7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ZiXiaZhang</t>
@@ -4194,8 +4186,8 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4372,14 +4364,14 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2">
@@ -4664,7 +4656,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="2">
         <v>0.35</v>
@@ -4900,10 +4892,10 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="J25" s="2">
         <v>3.95</v>
@@ -5114,17 +5106,17 @@
         <v>138</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J33" s="2">
         <v>1.75</v>
@@ -5144,17 +5136,17 @@
         <v>142</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -5174,14 +5166,14 @@
         <v>145</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2">
@@ -5229,17 +5221,17 @@
         <v>152</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="J37" s="2">
         <v>1.3</v>
@@ -5259,14 +5251,14 @@
         <v>155</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2">
@@ -5377,14 +5369,14 @@
         <v>172</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2">
@@ -5405,14 +5397,14 @@
         <v>175</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2">
@@ -5482,7 +5474,7 @@
         <v>4014</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>188</v>
@@ -5558,7 +5550,7 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2">
@@ -5586,7 +5578,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J49" s="2">
         <v>0.4</v>
@@ -5613,7 +5605,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J50" s="2">
         <v>0.4</v>
@@ -5633,14 +5625,14 @@
         <v>203</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J51" s="2">
         <v>1.25</v>
@@ -5780,14 +5772,14 @@
         <v>216</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J57" s="2">
         <v>1.1000000000000001</v>
@@ -5807,14 +5799,14 @@
         <v>219</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J58" s="2">
         <v>1.3</v>
@@ -5924,10 +5916,10 @@
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="J62" s="2">
         <v>3.95</v>
@@ -6236,17 +6228,17 @@
         <v>267</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="I74" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="J74" s="2">
         <v>1.95</v>
@@ -6266,14 +6258,14 @@
         <v>270</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J75" s="2">
         <v>2.65</v>
@@ -6293,14 +6285,14 @@
         <v>273</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J76" s="2">
         <v>3.1</v>
@@ -6320,14 +6312,14 @@
         <v>276</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J77" s="2">
         <v>2.4500000000000002</v>
@@ -6378,15 +6370,15 @@
       <c r="D80" s="2">
         <v>2</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>326</v>
+      <c r="E80" s="11">
+        <v>0.6</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G80" s="4"/>
       <c r="I80" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J80" s="2">
         <v>1.5</v>
@@ -6413,10 +6405,10 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J81" s="2">
         <v>1.58</v>
@@ -6436,14 +6428,14 @@
         <v>2</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J82" s="2">
         <v>4.0999999999999996</v>
@@ -6463,17 +6455,17 @@
         <v>2</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J83" s="2">
         <v>3.9</v>
@@ -6484,10 +6476,10 @@
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -6500,10 +6492,10 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J84" s="2">
         <v>2.2999999999999998</v>
@@ -6517,7 +6509,7 @@
         <v>285</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -6536,7 +6528,7 @@
         <v>286</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
@@ -6545,14 +6537,14 @@
         <v>1.5</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J86" s="2">
         <v>2.7</v>
@@ -6566,23 +6558,23 @@
         <v>287</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D87" s="2">
         <v>2</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>391</v>
+      <c r="E87" s="11">
+        <v>0.5</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I87" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>390</v>
       </c>
       <c r="J87" s="2">
         <v>2.42</v>
@@ -6602,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -6636,7 +6628,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -6712,7 +6704,7 @@
         <v>5034</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>302</v>
@@ -6731,10 +6723,10 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
@@ -6750,13 +6742,13 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
@@ -6769,10 +6761,10 @@
         <v>5037</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
@@ -6785,10 +6777,10 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I98" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="J98" s="2">
         <v>3.25</v>
@@ -6799,10 +6791,10 @@
         <v>5038</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D99" s="2">
         <v>2</v>
@@ -6815,10 +6807,10 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I99" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="J99" s="2">
         <v>3.5</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFF5FA-72D5-47A0-89E7-7C2F20C86E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6634120-F6E9-44EC-BD82-4CEC1033B5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -614,28 +614,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.5;0.7;0.9;1.1;1.3</t>
-    </r>
-  </si>
-  <si>
     <t>乱披风剑法</t>
   </si>
   <si>
@@ -1047,31 +1025,6 @@
     </r>
   </si>
   <si>
-    <t>TianCanJiao_Smoke</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TianCanJiao_Bullets_Left|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TianCanJiao_Bullets_Right</t>
-    </r>
-  </si>
-  <si>
     <t>天山折梅手</t>
   </si>
   <si>
@@ -2235,9 +2188,6 @@
       </rPr>
       <t>inlonggong</t>
     </r>
-  </si>
-  <si>
-    <t>QinLongGong_GroundRingSmokeGE</t>
   </si>
   <si>
     <t>QinLongGong_Left|QinLongGong_Right</t>
@@ -3676,6 +3626,55 @@
   </si>
   <si>
     <t>0.5;0.6;0.6;0.8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YuJianShu_Hit_Left|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YuJianShu_Hit_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QinLongGong_Hit_Left|QinLongGong_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hit_Right</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TanZhiShenGong_BulletHit_Left|TanZhiShenGong_BulletHit_Right</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TanZhiShenGong_Muzzle</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TianCanJiao</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TianCanJiao_Hit_Left|TianCanJiao_Hit_Right</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4185,9 +4184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4238,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -4274,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -4309,7 +4308,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
@@ -4344,7 +4343,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -4364,14 +4363,14 @@
         <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="2">
@@ -4656,7 +4655,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E17" s="2">
         <v>0.35</v>
@@ -4690,15 +4689,21 @@
       <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
+      <c r="E18" s="4">
+        <v>0.4</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4706,25 +4711,25 @@
         <v>2004</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -4738,23 +4743,23 @@
         <v>2005</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>28</v>
@@ -4768,10 +4773,10 @@
         <v>2006</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -4784,10 +4789,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J21" s="2">
         <v>3.3</v>
@@ -4798,16 +4803,16 @@
         <v>2007</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>27</v>
@@ -4822,16 +4827,16 @@
         <v>2008</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>27</v>
@@ -4846,10 +4851,10 @@
         <v>3001</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -4862,10 +4867,10 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J24" s="2">
         <v>2.74</v>
@@ -4876,10 +4881,10 @@
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4892,10 +4897,10 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J25" s="2">
         <v>3.95</v>
@@ -4906,13 +4911,13 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -4922,10 +4927,10 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J26" s="2">
         <v>1.8</v>
@@ -4936,25 +4941,25 @@
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>28</v>
@@ -4968,10 +4973,10 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
@@ -4987,13 +4992,13 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E29" s="2">
         <v>2.2000000000000002</v>
@@ -5003,10 +5008,10 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5014,13 +5019,13 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E30" s="2">
         <v>0.2</v>
@@ -5029,10 +5034,10 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>126</v>
+        <v>401</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="J30" s="2">
         <v>1.5</v>
@@ -5043,16 +5048,16 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
@@ -5067,13 +5072,13 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2">
         <v>1.3</v>
@@ -5083,10 +5088,10 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J32" s="2">
         <v>2.1</v>
@@ -5097,26 +5102,26 @@
         <v>4001</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J33" s="2">
         <v>1.75</v>
@@ -5127,26 +5132,26 @@
         <v>4002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -5157,23 +5162,23 @@
         <v>4003</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2">
@@ -5185,26 +5190,26 @@
         <v>4004</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G36" s="4"/>
       <c r="I36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J36" s="2">
-        <v>1.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,26 +5217,26 @@
         <v>4005</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J37" s="2">
         <v>1.3</v>
@@ -5242,23 +5247,23 @@
         <v>4006</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2">
@@ -5270,10 +5275,10 @@
         <v>4007</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -5282,14 +5287,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J39" s="2">
         <v>2.91</v>
@@ -5300,10 +5305,10 @@
         <v>4008</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -5312,14 +5317,14 @@
         <v>2.5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J40" s="2">
         <v>1.1499999999999999</v>
@@ -5330,26 +5335,26 @@
         <v>4009</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J41" s="2">
         <v>4.2</v>
@@ -5360,23 +5365,23 @@
         <v>4010</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2">
@@ -5388,23 +5393,23 @@
         <v>4011</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2">
@@ -5416,25 +5421,25 @@
         <v>4012</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="J44" s="2">
         <v>2.17</v>
@@ -5445,25 +5450,25 @@
         <v>4013</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="F45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="J45" s="2">
         <v>1.44</v>
@@ -5474,10 +5479,10 @@
         <v>4014</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -5486,14 +5491,14 @@
         <v>1.25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J46" s="2">
         <v>2.33</v>
@@ -5504,10 +5509,10 @@
         <v>4015</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -5516,14 +5521,14 @@
         <v>2.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J47" s="2">
         <v>3.69</v>
@@ -5534,10 +5539,10 @@
         <v>4016</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -5546,11 +5551,11 @@
         <v>0.4</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2">
@@ -5562,10 +5567,10 @@
         <v>4017</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D49" s="2">
         <v>0.7</v>
@@ -5574,11 +5579,11 @@
         <v>0.54</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J49" s="2">
         <v>0.4</v>
@@ -5589,10 +5594,10 @@
         <v>4018</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" s="2">
         <v>0.9</v>
@@ -5601,11 +5606,11 @@
         <v>0.42</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J50" s="2">
         <v>0.4</v>
@@ -5616,23 +5621,23 @@
         <v>4019</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J51" s="2">
         <v>1.25</v>
@@ -5643,10 +5648,10 @@
         <v>4020</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -5655,7 +5660,7 @@
         <v>0.4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G52" s="4"/>
       <c r="I52" s="4" t="s">
@@ -5667,10 +5672,10 @@
         <v>4021</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D53" s="2">
         <v>0.8</v>
@@ -5679,7 +5684,7 @@
         <v>0.4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G53" s="4"/>
       <c r="I53" s="4" t="s">
@@ -5691,10 +5696,10 @@
         <v>4022</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -5703,7 +5708,7 @@
         <v>0.4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
@@ -5715,10 +5720,10 @@
         <v>4023</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" s="2">
         <v>0.5</v>
@@ -5727,7 +5732,7 @@
         <v>0.4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
@@ -5739,10 +5744,10 @@
         <v>4024</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -5751,7 +5756,7 @@
         <v>0.4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
@@ -5763,23 +5768,23 @@
         <v>4025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J57" s="2">
         <v>1.1000000000000001</v>
@@ -5790,23 +5795,23 @@
         <v>4026</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J58" s="2">
         <v>1.3</v>
@@ -5817,10 +5822,10 @@
         <v>4027</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -5829,14 +5834,14 @@
         <v>0.7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J59" s="2">
         <v>3.3</v>
@@ -5847,10 +5852,10 @@
         <v>4028</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -5859,11 +5864,11 @@
         <v>0.37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J60" s="2">
         <v>0.9</v>
@@ -5874,22 +5879,22 @@
         <v>4029</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="J61" s="2">
         <v>0.81</v>
@@ -5900,10 +5905,10 @@
         <v>5001</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -5912,14 +5917,14 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J62" s="2">
         <v>3.95</v>
@@ -5930,10 +5935,10 @@
         <v>5002</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -5942,13 +5947,13 @@
         <v>1.3</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>236</v>
+      <c r="I63" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="J63" s="2">
         <v>1.03</v>
@@ -5959,10 +5964,10 @@
         <v>5003</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -5971,14 +5976,14 @@
         <v>0.6</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J64" s="2">
         <v>2.46</v>
@@ -5989,26 +5994,26 @@
         <v>5004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E65" s="2">
         <v>0.72</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J65" s="2">
         <v>1.4</v>
@@ -6019,10 +6024,10 @@
         <v>5005</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -6031,14 +6036,14 @@
         <v>2.5</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J66" s="2">
         <v>3.6</v>
@@ -6049,10 +6054,10 @@
         <v>5006</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -6061,11 +6066,11 @@
         <v>1.77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J67" s="2">
         <v>0.57999999999999996</v>
@@ -6076,10 +6081,10 @@
         <v>5007</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -6088,14 +6093,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J68" s="2">
         <v>3.1</v>
@@ -6106,10 +6111,10 @@
         <v>5008</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -6118,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
@@ -6131,10 +6136,10 @@
         <v>5009</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2">
         <v>0.8</v>
@@ -6143,11 +6148,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J70" s="2">
         <v>0.8</v>
@@ -6158,26 +6163,26 @@
         <v>5010</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D71" s="2">
         <v>2.35</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J71" s="2">
         <v>2.35</v>
@@ -6188,13 +6193,13 @@
         <v>5011</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G72" s="4"/>
     </row>
@@ -6203,14 +6208,14 @@
         <v>5012</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G73" s="4"/>
     </row>
@@ -6219,26 +6224,26 @@
         <v>5013</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J74" s="2">
         <v>1.95</v>
@@ -6249,23 +6254,23 @@
         <v>5014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J75" s="2">
         <v>2.65</v>
@@ -6276,23 +6281,23 @@
         <v>5015</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J76" s="2">
         <v>3.1</v>
@@ -6303,23 +6308,23 @@
         <v>5016</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J77" s="2">
         <v>2.4500000000000002</v>
@@ -6330,14 +6335,14 @@
         <v>5017</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G78" s="4"/>
     </row>
@@ -6346,14 +6351,14 @@
         <v>5018</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G79" s="4"/>
     </row>
@@ -6362,10 +6367,10 @@
         <v>5019</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
@@ -6374,11 +6379,11 @@
         <v>0.6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G80" s="4"/>
       <c r="I80" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J80" s="2">
         <v>1.5</v>
@@ -6389,10 +6394,10 @@
         <v>5020</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -6401,14 +6406,14 @@
         <v>0.65</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J81" s="2">
         <v>1.58</v>
@@ -6419,23 +6424,23 @@
         <v>5021</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J82" s="2">
         <v>4.0999999999999996</v>
@@ -6446,26 +6451,26 @@
         <v>5022</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J83" s="2">
         <v>3.9</v>
@@ -6476,10 +6481,10 @@
         <v>5023</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -6488,14 +6493,14 @@
         <v>1.18</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J84" s="2">
         <v>2.2999999999999998</v>
@@ -6506,17 +6511,17 @@
         <v>5024</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G85" s="4"/>
     </row>
@@ -6525,10 +6530,10 @@
         <v>5025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
@@ -6537,14 +6542,14 @@
         <v>1.5</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J86" s="2">
         <v>2.7</v>
@@ -6555,10 +6560,10 @@
         <v>5026</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D87" s="2">
         <v>2</v>
@@ -6567,14 +6572,14 @@
         <v>0.5</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J87" s="2">
         <v>2.42</v>
@@ -6585,16 +6590,16 @@
         <v>5027</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -6602,17 +6607,17 @@
         <v>5028</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G89" s="4"/>
     </row>
@@ -6621,14 +6626,14 @@
         <v>5029</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G90" s="4"/>
     </row>
@@ -6637,14 +6642,14 @@
         <v>5030</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G91" s="4"/>
     </row>
@@ -6653,14 +6658,14 @@
         <v>5031</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G92" s="4"/>
     </row>
@@ -6669,14 +6674,14 @@
         <v>5032</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G93" s="4"/>
     </row>
@@ -6685,17 +6690,17 @@
         <v>5033</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G94" s="4"/>
     </row>
@@ -6704,17 +6709,17 @@
         <v>5034</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D95" s="2">
         <v>1.4</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G95" s="4"/>
     </row>
@@ -6723,17 +6728,17 @@
         <v>5035</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G96" s="4"/>
     </row>
@@ -6742,17 +6747,17 @@
         <v>5036</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G97" s="4"/>
     </row>
@@ -6761,10 +6766,10 @@
         <v>5037</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
@@ -6773,14 +6778,14 @@
         <v>1.4</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J98" s="2">
         <v>3.25</v>
@@ -6791,10 +6796,10 @@
         <v>5038</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D99" s="2">
         <v>2</v>
@@ -6803,14 +6808,14 @@
         <v>1.4</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J99" s="2">
         <v>3.5</v>
@@ -6821,14 +6826,14 @@
         <v>5039</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G100" s="4"/>
     </row>
@@ -6837,14 +6842,14 @@
         <v>5040</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -6853,14 +6858,14 @@
         <v>5041</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G102" s="4"/>
     </row>
@@ -6869,14 +6874,14 @@
         <v>5042</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -6885,10 +6890,10 @@
         <v>9901</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D104" s="2">
         <v>1.5</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuAnimationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6634120-F6E9-44EC-BD82-4CEC1033B5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A84D3C-4834-4E21-9553-095F99C4103B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3670,11 +3670,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>TianCanJiao</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>TianCanJiao_Hit_Left|TianCanJiao_Hit_Right</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TianCanJiaoPre</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4184,9 +4184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5034,10 +5034,10 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="J30" s="2">
         <v>1.5</v>
